--- a/sriramModel-nelson-melancholic-patientID_55-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_55-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.167129440807522</v>
+        <v>1.170820744178907</v>
       </c>
       <c r="C2">
-        <v>1.298927956249317</v>
+        <v>1.047710970108744</v>
       </c>
       <c r="D2">
-        <v>1.042278786485078</v>
+        <v>1.188214955751039</v>
       </c>
       <c r="E2">
-        <v>1.082930111005744</v>
+        <v>1.215477150971108</v>
       </c>
       <c r="F2">
-        <v>1.043371916556142</v>
+        <v>1.298439286418658</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.333929813710123</v>
+        <v>1.341320631142656</v>
       </c>
       <c r="C3">
-        <v>1.597617321121787</v>
+        <v>1.094282741053699</v>
       </c>
       <c r="D3">
-        <v>1.083989099268986</v>
+        <v>1.375930579951231</v>
       </c>
       <c r="E3">
-        <v>1.164923789441001</v>
+        <v>1.430101015077778</v>
       </c>
       <c r="F3">
-        <v>1.086640848550075</v>
+        <v>1.596548591581707</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.50041141802639</v>
+        <v>1.5115092568743</v>
       </c>
       <c r="C4">
-        <v>1.89608011350757</v>
+        <v>1.139747177591203</v>
       </c>
       <c r="D4">
-        <v>1.125146121100356</v>
+        <v>1.563175197091542</v>
       </c>
       <c r="E4">
-        <v>1.246058844558255</v>
+        <v>1.643982992612769</v>
       </c>
       <c r="F4">
-        <v>1.129808566865139</v>
+        <v>1.894352597506524</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.666584044287482</v>
+        <v>1.681395627271866</v>
       </c>
       <c r="C5">
-        <v>2.194327408677307</v>
+        <v>1.184131539916513</v>
       </c>
       <c r="D5">
-        <v>1.165764197768535</v>
+        <v>1.749974467613985</v>
       </c>
       <c r="E5">
-        <v>1.326394772257773</v>
+        <v>1.857213618854251</v>
       </c>
       <c r="F5">
-        <v>1.172876834099982</v>
+        <v>2.191873252239905</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.832457017434236</v>
+        <v>1.850988220212735</v>
       </c>
       <c r="C6">
-        <v>2.492369450369528</v>
+        <v>1.227459372907324</v>
       </c>
       <c r="D6">
-        <v>1.205856945816377</v>
+        <v>1.936351833596631</v>
       </c>
       <c r="E6">
-        <v>1.405976879172944</v>
+        <v>2.06986741472717</v>
       </c>
       <c r="F6">
-        <v>1.215847401717459</v>
+        <v>2.489130195709931</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.998039208718997</v>
+        <v>2.02029500023259</v>
       </c>
       <c r="C7">
-        <v>2.79021573468457</v>
+        <v>1.269751056828731</v>
       </c>
       <c r="D7">
-        <v>1.24543724073984</v>
+        <v>2.122328640663891</v>
       </c>
       <c r="E7">
-        <v>1.484839255024647</v>
+        <v>2.282006483788118</v>
       </c>
       <c r="F7">
-        <v>1.258722008512899</v>
+        <v>2.786141014417168</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.163339078578125</v>
+        <v>2.189323475538124</v>
       </c>
       <c r="C8">
-        <v>3.087875068066848</v>
+        <v>1.311024447738105</v>
       </c>
       <c r="D8">
-        <v>1.284517265910239</v>
+        <v>2.307924417104059</v>
       </c>
       <c r="E8">
-        <v>1.563007083708276</v>
+        <v>2.493683306589632</v>
       </c>
       <c r="F8">
-        <v>1.301502377388515</v>
+        <v>3.082921580626514</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.328364697414562</v>
+        <v>2.358080729347122</v>
       </c>
       <c r="C9">
-        <v>3.385355637477049</v>
+        <v>1.351295256796974</v>
       </c>
       <c r="D9">
-        <v>1.323108574859768</v>
+        <v>2.493157119110296</v>
       </c>
       <c r="E9">
-        <v>1.640498175200059</v>
+        <v>2.704942588209789</v>
       </c>
       <c r="F9">
-        <v>1.344190213261117</v>
+        <v>3.379486238894613</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.493123767733857</v>
+        <v>2.526573443357631</v>
       </c>
       <c r="C10">
-        <v>3.682665069107121</v>
+        <v>1.390577367010675</v>
       </c>
       <c r="D10">
-        <v>1.361222123159186</v>
+        <v>2.678043259737638</v>
       </c>
       <c r="E10">
-        <v>1.717324144177564</v>
+        <v>2.915822691997291</v>
       </c>
       <c r="F10">
-        <v>1.386787200875864</v>
+        <v>3.675848006069491</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.657623649408563</v>
+        <v>2.694807925756782</v>
       </c>
       <c r="C11">
-        <v>3.979810475423323</v>
+        <v>1.428883121095591</v>
       </c>
       <c r="D11">
-        <v>1.398868293028926</v>
+        <v>2.86259803999711</v>
       </c>
       <c r="E11">
-        <v>1.793491276138496</v>
+        <v>3.126356740170112</v>
       </c>
       <c r="F11">
-        <v>1.429295001631673</v>
+        <v>3.972018733840463</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.821871375165848</v>
+        <v>2.862790137275096</v>
       </c>
       <c r="C12">
-        <v>4.27679849644385</v>
+        <v>1.466223527519342</v>
       </c>
       <c r="D12">
-        <v>1.43605692025721</v>
+        <v>3.046835492530535</v>
       </c>
       <c r="E12">
-        <v>1.869001338428717</v>
+        <v>3.336573600036459</v>
       </c>
       <c r="F12">
-        <v>1.471715250383363</v>
+        <v>4.268009228653581</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.985873661228728</v>
+        <v>3.030525711800318</v>
       </c>
       <c r="C13">
-        <v>4.573635338706738</v>
+        <v>1.502608435949961</v>
       </c>
       <c r="D13">
-        <v>1.472797326236988</v>
+        <v>3.230768599268634</v>
       </c>
       <c r="E13">
-        <v>1.943852210647134</v>
+        <v>3.546498620790118</v>
       </c>
       <c r="F13">
-        <v>1.514049552196368</v>
+        <v>4.563829363355063</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.149636939480507</v>
+        <v>3.198019974408737</v>
       </c>
       <c r="C14">
-        <v>4.870326818282644</v>
+        <v>1.538046713948548</v>
       </c>
       <c r="D14">
-        <v>1.509098345339717</v>
+        <v>3.414409383539111</v>
       </c>
       <c r="E14">
-        <v>2.018038304940375</v>
+        <v>3.75615414763335</v>
       </c>
       <c r="F14">
-        <v>1.556299478849935</v>
+        <v>4.859488179545687</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.313167372394622</v>
+        <v>3.365277956749158</v>
       </c>
       <c r="C15">
-        <v>5.166878360816616</v>
+        <v>1.572546399911853</v>
       </c>
       <c r="D15">
-        <v>1.544968346312706</v>
+        <v>3.597768990655614</v>
       </c>
       <c r="E15">
-        <v>2.091550886591142</v>
+        <v>3.965559935210385</v>
       </c>
       <c r="F15">
-        <v>1.598466565413486</v>
+        <v>5.15499402299453</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.476470860719885</v>
+        <v>3.532304412602075</v>
       </c>
       <c r="C16">
-        <v>5.463295065439454</v>
+        <v>1.606114782554672</v>
       </c>
       <c r="D16">
-        <v>1.580415251948694</v>
+        <v>3.780857774323907</v>
       </c>
       <c r="E16">
-        <v>2.164378401742486</v>
+        <v>4.174733530923376</v>
       </c>
       <c r="F16">
-        <v>1.640552305910993</v>
+        <v>5.45035458728212</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.639553054437756</v>
+        <v>3.699103831257563</v>
       </c>
       <c r="C17">
-        <v>5.759581723914792</v>
+        <v>1.638758473572712</v>
       </c>
       <c r="D17">
-        <v>1.615446557834674</v>
+        <v>3.963685322768695</v>
       </c>
       <c r="E17">
-        <v>2.236506775027625</v>
+        <v>4.383690635165413</v>
       </c>
       <c r="F17">
-        <v>1.682558150100871</v>
+        <v>5.745576967633917</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.802419368215564</v>
+        <v>3.865680440080838</v>
       </c>
       <c r="C18">
-        <v>6.055742837303796</v>
+        <v>1.67048349146332</v>
       </c>
       <c r="D18">
-        <v>1.650069349890902</v>
+        <v>4.146260547729625</v>
       </c>
       <c r="E18">
-        <v>2.307919617476911</v>
+        <v>4.59244536013876</v>
       </c>
       <c r="F18">
-        <v>1.724485497457498</v>
+        <v>6.040667718764684</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.965074995074859</v>
+        <v>4.03203822232084</v>
       </c>
       <c r="C19">
-        <v>6.3517826305435</v>
+        <v>1.701295335571261</v>
       </c>
       <c r="D19">
-        <v>1.684290322488021</v>
+        <v>4.328591729706614</v>
       </c>
       <c r="E19">
-        <v>2.378598472388931</v>
+        <v>4.801010449720628</v>
       </c>
       <c r="F19">
-        <v>1.766335694518077</v>
+        <v>6.3356329065208</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.127524916389081</v>
+        <v>4.198180923658319</v>
       </c>
       <c r="C20">
-        <v>6.647705072475398</v>
+        <v>1.73119904335703</v>
       </c>
       <c r="D20">
-        <v>1.718115791966375</v>
+        <v>4.510686544965477</v>
       </c>
       <c r="E20">
-        <v>2.448522928271483</v>
+        <v>5.009397356743662</v>
       </c>
       <c r="F20">
-        <v>1.808110027831195</v>
+        <v>6.630478156248478</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.289773910549611</v>
+        <v>4.364112054642457</v>
       </c>
       <c r="C21">
-        <v>6.943513896203992</v>
+        <v>1.760199255294374</v>
       </c>
       <c r="D21">
-        <v>1.751551696306336</v>
+        <v>4.692552148936973</v>
       </c>
       <c r="E21">
-        <v>2.517670776958788</v>
+        <v>5.217616450638323</v>
       </c>
       <c r="F21">
-        <v>1.849809718894801</v>
+        <v>6.92520869127098</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.451826561967933</v>
+        <v>4.529834892297484</v>
       </c>
       <c r="C22">
-        <v>7.239212615070467</v>
+        <v>1.788300240280353</v>
       </c>
       <c r="D22">
-        <v>1.784603625660482</v>
+        <v>4.874195168750636</v>
       </c>
       <c r="E22">
-        <v>2.586018169568735</v>
+        <v>5.425677142301523</v>
       </c>
       <c r="F22">
-        <v>1.891435918763311</v>
+        <v>7.219829371162996</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.613687269823474</v>
+        <v>4.695352482286933</v>
       </c>
       <c r="C23">
-        <v>7.534804534630172</v>
+        <v>1.815505954774197</v>
       </c>
       <c r="D23">
-        <v>1.817276829716831</v>
+        <v>5.055621753137256</v>
       </c>
       <c r="E23">
-        <v>2.653539744395117</v>
+        <v>5.633588006823285</v>
       </c>
       <c r="F23">
-        <v>1.932989701767989</v>
+        <v>7.514344720569518</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.775360255821778</v>
+        <v>4.860667639886328</v>
       </c>
       <c r="C24">
-        <v>7.830292763392601</v>
+        <v>1.841820062236816</v>
       </c>
       <c r="D24">
-        <v>1.849576223788525</v>
+        <v>5.236837576179577</v>
       </c>
       <c r="E24">
-        <v>2.720208756178686</v>
+        <v>5.841356884960203</v>
       </c>
       <c r="F24">
-        <v>1.974472059523033</v>
+        <v>7.808758956282534</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.936849569250047</v>
+        <v>5.025782947674029</v>
       </c>
       <c r="C25">
-        <v>8.125680223584412</v>
+        <v>1.867245947854311</v>
       </c>
       <c r="D25">
-        <v>1.88150639823211</v>
+        <v>5.417847867103971</v>
       </c>
       <c r="E25">
-        <v>2.785997203332255</v>
+        <v>6.048990943839556</v>
       </c>
       <c r="F25">
-        <v>2.015883893435012</v>
+        <v>8.103076041741298</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.098159102590453</v>
+        <v>5.190700751085359</v>
       </c>
       <c r="C26">
-        <v>8.420969661031405</v>
+        <v>1.891786782235168</v>
       </c>
       <c r="D26">
-        <v>1.913071620682996</v>
+        <v>5.598657430114095</v>
       </c>
       <c r="E26">
-        <v>2.850875944994398</v>
+        <v>6.256496745658118</v>
       </c>
       <c r="F26">
-        <v>2.057226007819122</v>
+        <v>8.397299632949343</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.259292587295144</v>
+        <v>5.355423153601459</v>
       </c>
       <c r="C27">
-        <v>8.716163655158859</v>
+        <v>1.915445499467038</v>
       </c>
       <c r="D27">
-        <v>1.944275844231681</v>
+        <v>5.779270660511667</v>
       </c>
       <c r="E27">
-        <v>2.914814814824087</v>
+        <v>6.463880306942429</v>
       </c>
       <c r="F27">
-        <v>2.098499100832348</v>
+        <v>8.691433142212642</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.420253603867096</v>
+        <v>5.519952011505484</v>
       </c>
       <c r="C28">
-        <v>9.011264622688719</v>
+        <v>1.938224858347501</v>
       </c>
       <c r="D28">
-        <v>1.975122714765441</v>
+        <v>5.959691556700101</v>
       </c>
       <c r="E28">
-        <v>2.977782728975853</v>
+        <v>6.671147145912871</v>
       </c>
       <c r="F28">
-        <v>2.139703756498619</v>
+        <v>8.985479743581127</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.581045582880191</v>
+        <v>5.684288913482116</v>
       </c>
       <c r="C29">
-        <v>9.306274833958417</v>
+        <v>1.960127440785141</v>
       </c>
       <c r="D29">
-        <v>2.005615573252643</v>
+        <v>6.139923728619289</v>
       </c>
       <c r="E29">
-        <v>3.03974780613328</v>
+        <v>6.878302335072862</v>
       </c>
       <c r="F29">
-        <v>2.180840435846389</v>
+        <v>9.279442399469588</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.741671812777893</v>
+        <v>5.848435187638903</v>
       </c>
       <c r="C30">
-        <v>9.601196402355583</v>
+        <v>1.981155684515626</v>
       </c>
       <c r="D30">
-        <v>2.035757460917577</v>
+        <v>6.319970406577577</v>
       </c>
       <c r="E30">
-        <v>3.100677480505599</v>
+        <v>7.085350539174079</v>
       </c>
       <c r="F30">
-        <v>2.22190946651948</v>
+        <v>9.573323874988791</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.902135441268995</v>
+        <v>6.012391860503709</v>
       </c>
       <c r="C31">
-        <v>9.896031311354344</v>
+        <v>2.001311891801888</v>
       </c>
       <c r="D31">
-        <v>2.065551122869815</v>
+        <v>6.499834437531111</v>
       </c>
       <c r="E31">
-        <v>3.160538619772011</v>
+        <v>7.292296047410725</v>
       </c>
       <c r="F31">
-        <v>2.262911032526143</v>
+        <v>9.867126739657216</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6.062439480227633</v>
+        <v>6.176159661854133</v>
       </c>
       <c r="C32">
-        <v>10.19078139153808</v>
+        <v>2.02059824935128</v>
       </c>
       <c r="D32">
-        <v>2.094999003754022</v>
+        <v>6.679518289568694</v>
       </c>
       <c r="E32">
-        <v>3.219297642638419</v>
+        <v>7.499142804759266</v>
       </c>
       <c r="F32">
-        <v>2.3038451639654</v>
+        <v>10.16085338393894</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.222586808829362</v>
+        <v>6.339738988058386</v>
       </c>
       <c r="C33">
-        <v>10.48544835104865</v>
+        <v>2.039016840074309</v>
       </c>
       <c r="D33">
-        <v>2.124103258342554</v>
+        <v>6.859024051380707</v>
       </c>
       <c r="E33">
-        <v>3.276920635992976</v>
+        <v>7.705894430399833</v>
       </c>
       <c r="F33">
-        <v>2.344711723559865</v>
+        <v>10.45450601141633</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6.382580174408479</v>
+        <v>6.503129884760341</v>
       </c>
       <c r="C34">
-        <v>10.78003375159889</v>
+        <v>2.056569652253176</v>
       </c>
       <c r="D34">
-        <v>2.152865736528871</v>
+        <v>7.038353424014403</v>
       </c>
       <c r="E34">
-        <v>3.333373473693643</v>
+        <v>7.912554242792374</v>
       </c>
       <c r="F34">
-        <v>2.38551039419516</v>
+        <v>10.74808665404359</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6.542422196103566</v>
+        <v>6.666332023858638</v>
       </c>
       <c r="C35">
-        <v>11.07453903291468</v>
+        <v>2.07325860016084</v>
       </c>
       <c r="D35">
-        <v>2.181287997674647</v>
+        <v>7.217507713797129</v>
       </c>
       <c r="E35">
-        <v>3.388621936289503</v>
+        <v>8.119125277623962</v>
       </c>
       <c r="F35">
-        <v>2.426240666307679</v>
+        <v>11.04159717403463</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6.702115361463068</v>
+        <v>6.82934465763045</v>
       </c>
       <c r="C36">
-        <v>11.36896549317799</v>
+        <v>2.089085525029768</v>
       </c>
       <c r="D36">
-        <v>2.20937129147394</v>
+        <v>7.3964878244781</v>
       </c>
       <c r="E36">
-        <v>3.442631832036736</v>
+        <v>8.325610303758442</v>
       </c>
       <c r="F36">
-        <v>2.466901821364008</v>
+        <v>11.33503926988699</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6.861662031909901</v>
+        <v>6.992166603514693</v>
       </c>
       <c r="C37">
-        <v>11.66331430677494</v>
+        <v>2.104052215184308</v>
       </c>
       <c r="D37">
-        <v>2.237116569820648</v>
+        <v>7.575294237736222</v>
       </c>
       <c r="E37">
-        <v>3.495369117621738</v>
+        <v>8.532011835203502</v>
       </c>
       <c r="F37">
-        <v>2.507492916543775</v>
+        <v>11.62841447673962</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7.021064436308832</v>
+        <v>7.154796180406981</v>
       </c>
       <c r="C38">
-        <v>11.9575865048321</v>
+        <v>2.118160409691079</v>
       </c>
       <c r="D38">
-        <v>2.264524468019017</v>
+        <v>7.753926994812784</v>
       </c>
       <c r="E38">
-        <v>3.546800019247581</v>
+        <v>8.738332139786285</v>
       </c>
       <c r="F38">
-        <v>2.548012769139774</v>
+        <v>11.9217241663639</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7.180324674321433</v>
+        <v>7.317231178713546</v>
       </c>
       <c r="C39">
-        <v>12.25178299165111</v>
+        <v>2.131411813144665</v>
       </c>
       <c r="D39">
-        <v>2.291595311841021</v>
+        <v>7.932385677227448</v>
       </c>
       <c r="E39">
-        <v>3.596891153626272</v>
+        <v>8.944573246434423</v>
       </c>
       <c r="F39">
-        <v>2.588459936310506</v>
+        <v>12.2149695459477</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7.339444711338471</v>
+        <v>7.479468802737175</v>
       </c>
       <c r="C40">
-        <v>12.54590451900285</v>
+        <v>2.143808101501484</v>
       </c>
       <c r="D40">
-        <v>2.318329098269729</v>
+        <v>8.110669375479599</v>
       </c>
       <c r="E40">
-        <v>3.64560964641228</v>
+        <v>9.15073694915538</v>
       </c>
       <c r="F40">
-        <v>2.628832695877446</v>
+        <v>12.50815165167605</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7.498426375330271</v>
+        <v>7.641505597060739</v>
       </c>
       <c r="C41">
-        <v>12.83995170508226</v>
+        <v>2.155350932496434</v>
       </c>
       <c r="D41">
-        <v>2.344725499132119</v>
+        <v>8.288776654999769</v>
       </c>
       <c r="E41">
-        <v>3.692923250370129</v>
+        <v>9.356824809679129</v>
       </c>
       <c r="F41">
-        <v>2.669129027077611</v>
+        <v>12.80127134486076</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7.657271355307327</v>
+        <v>7.803337412809182</v>
       </c>
       <c r="C42">
-        <v>13.13392499959191</v>
+        <v>2.166041953318455</v>
       </c>
       <c r="D42">
-        <v>2.370783838761421</v>
+        <v>8.466705520471617</v>
       </c>
       <c r="E42">
-        <v>3.738800461075602</v>
+        <v>9.562838154847366</v>
       </c>
       <c r="F42">
-        <v>2.709346585599856</v>
+        <v>13.09432930540634</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7.815981189326883</v>
+        <v>7.964959286573932</v>
       </c>
       <c r="C43">
-        <v>13.42782470565351</v>
+        <v>2.175882806851888</v>
       </c>
       <c r="D43">
-        <v>2.396503095580319</v>
+        <v>8.644453368745804</v>
       </c>
       <c r="E43">
-        <v>3.78321062889342</v>
+        <v>9.768778072958947</v>
       </c>
       <c r="F43">
-        <v>2.749482679675998</v>
+        <v>13.38732602047106</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.974557265150623</v>
+        <v>8.126365396461281</v>
       </c>
       <c r="C44">
-        <v>13.72165093406549</v>
+        <v>2.184875142378858</v>
       </c>
       <c r="D44">
-        <v>2.421881875482492</v>
+        <v>8.822016929652106</v>
       </c>
       <c r="E44">
-        <v>3.82612406804616</v>
+        <v>9.974645405697279</v>
       </c>
       <c r="F44">
-        <v>2.789534246103744</v>
+        <v>13.68026177160318</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8.133000802031445</v>
+        <v>8.287548935992353</v>
       </c>
       <c r="C45">
-        <v>14.01540362841203</v>
+        <v>2.193020618563087</v>
       </c>
       <c r="D45">
-        <v>2.446918410969527</v>
+        <v>8.999392204890848</v>
       </c>
       <c r="E45">
-        <v>3.867512164027704</v>
+        <v>10.18044073761964</v>
       </c>
       <c r="F45">
-        <v>2.829497819566646</v>
+        <v>13.97313662034794</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>8.291312846472859</v>
+        <v>8.44850200362044</v>
       </c>
       <c r="C46">
-        <v>14.3090825147877</v>
+        <v>2.200320914159234</v>
       </c>
       <c r="D46">
-        <v>2.471610530360957</v>
+        <v>9.176574398821584</v>
       </c>
       <c r="E46">
-        <v>3.907347472328029</v>
+        <v>10.38616437955067</v>
       </c>
       <c r="F46">
-        <v>2.86936950249869</v>
+        <v>14.26595038739036</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8.449494254758639</v>
+        <v>8.60921551462207</v>
       </c>
       <c r="C47">
-        <v>14.60268709946132</v>
+        <v>2.206777731411318</v>
       </c>
       <c r="D47">
-        <v>2.495955653125274</v>
+        <v>9.353557818701953</v>
       </c>
       <c r="E47">
-        <v>3.945603813838607</v>
+        <v>10.59181634759384</v>
       </c>
       <c r="F47">
-        <v>2.909144935174815</v>
+        <v>14.55870262674376</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8.607545671690007</v>
+        <v>8.7696789887748</v>
       </c>
       <c r="C48">
-        <v>14.89621663476692</v>
+        <v>2.212392804808993</v>
       </c>
       <c r="D48">
-        <v>2.519950754881827</v>
+        <v>9.530335771942696</v>
       </c>
       <c r="E48">
-        <v>3.982256364004933</v>
+        <v>10.79739633664967</v>
       </c>
       <c r="F48">
-        <v>2.948819257774274</v>
+        <v>14.8513925959539</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.765467523113204</v>
+        <v>8.92988047688211</v>
       </c>
       <c r="C49">
-        <v>15.18967009401448</v>
+        <v>2.21716790525318</v>
       </c>
       <c r="D49">
-        <v>2.543592357651596</v>
+        <v>9.706900463669974</v>
       </c>
       <c r="E49">
-        <v>4.017281740757471</v>
+        <v>11.0029036860233</v>
       </c>
       <c r="F49">
-        <v>2.988387072313237</v>
+        <v>15.14401922446981</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>8.923259969228045</v>
+        <v>9.089806292477109</v>
       </c>
       <c r="C50">
-        <v>15.48304614151194</v>
+        <v>2.221104846872383</v>
       </c>
       <c r="D50">
-        <v>2.566876489926944</v>
+        <v>9.883242827608745</v>
       </c>
       <c r="E50">
-        <v>4.050658075287924</v>
+        <v>11.20833733992605</v>
       </c>
       <c r="F50">
-        <v>3.027842405045695</v>
+        <v>15.43658106235016</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>9.080922898430034</v>
+        <v>9.249440856843924</v>
       </c>
       <c r="C51">
-        <v>15.77634308169522</v>
+        <v>2.224205492274329</v>
       </c>
       <c r="D51">
-        <v>2.589798670636349</v>
+        <v>10.05935235959506</v>
       </c>
       <c r="E51">
-        <v>4.082365083602546</v>
+        <v>11.41369579115274</v>
       </c>
       <c r="F51">
-        <v>3.067178659481589</v>
+        <v>15.72907622620044</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9.238455865248369</v>
+        <v>9.408766464288687</v>
       </c>
       <c r="C52">
-        <v>16.06955880343369</v>
+        <v>2.226471757030422</v>
       </c>
       <c r="D52">
-        <v>2.612353863313233</v>
+        <v>10.23521694581475</v>
       </c>
       <c r="E52">
-        <v>4.11238412964994</v>
+        <v>11.61897701667194</v>
       </c>
       <c r="F52">
-        <v>3.106388567865818</v>
+        <v>16.02150234035365</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9.395858071683511</v>
+        <v>9.567762926243345</v>
       </c>
       <c r="C53">
-        <v>16.3626907301248</v>
+        <v>2.227905616528272</v>
       </c>
       <c r="D53">
-        <v>2.63453645202328</v>
+        <v>10.41082259246216</v>
       </c>
       <c r="E53">
-        <v>4.140698281119808</v>
+        <v>11.82417839420586</v>
       </c>
       <c r="F53">
-        <v>3.145464143594863</v>
+        <v>16.31385644651963</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9.553128279549492</v>
+        <v>9.726407426786368</v>
       </c>
       <c r="C54">
-        <v>16.65573572058052</v>
+        <v>2.228509108636482</v>
       </c>
       <c r="D54">
-        <v>2.656340188884488</v>
+        <v>10.58615313918823</v>
       </c>
       <c r="E54">
-        <v>4.167292350881768</v>
+        <v>12.02929660563662</v>
       </c>
       <c r="F54">
-        <v>3.184396622499493</v>
+        <v>16.60613489920055</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>9.710264753690041</v>
+        <v>9.88467395898542</v>
       </c>
       <c r="C55">
-        <v>16.94868997013615</v>
+        <v>2.228284340609542</v>
       </c>
       <c r="D55">
-        <v>2.677758169133609</v>
+        <v>10.76118996308194</v>
       </c>
       <c r="E55">
-        <v>4.192152936793879</v>
+        <v>12.23432750627417</v>
       </c>
       <c r="F55">
-        <v>3.223176398739879</v>
+        <v>16.89833324468944</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>9.867265175769994</v>
+        <v>10.0425331054045</v>
       </c>
       <c r="C56">
-        <v>17.24154892507632</v>
+        <v>2.227233491787612</v>
       </c>
       <c r="D56">
-        <v>2.698782750568582</v>
+        <v>10.93591154223682</v>
       </c>
       <c r="E56">
-        <v>4.215268455092844</v>
+        <v>12.43926596450361</v>
       </c>
       <c r="F56">
-        <v>3.261792967570952</v>
+        <v>17.19044607783185</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>10.02412653395375</v>
+        <v>10.1999514639927</v>
       </c>
       <c r="C57">
-        <v>17.53430707085116</v>
+        <v>2.22535881953572</v>
       </c>
       <c r="D57">
-        <v>2.719405513253268</v>
+        <v>11.11029294692004</v>
       </c>
       <c r="E57">
-        <v>4.236629158167478</v>
+        <v>12.64410566128564</v>
       </c>
       <c r="F57">
-        <v>3.300234852251018</v>
+        <v>17.4824668062645</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>10.1808449954899</v>
+        <v>10.356891053385</v>
       </c>
       <c r="C58">
-        <v>17.82695775955255</v>
+        <v>2.22266266239488</v>
       </c>
       <c r="D58">
-        <v>2.739617195842424</v>
+        <v>11.28430530766673</v>
       </c>
       <c r="E58">
-        <v>4.256227146960023</v>
+        <v>12.8488388347838</v>
       </c>
       <c r="F58">
-        <v>3.338489520911322</v>
+        <v>17.77438740224506</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>10.33741572224898</v>
+        <v>10.51330899052637</v>
       </c>
       <c r="C59">
-        <v>18.11949296284194</v>
+        <v>2.219147444896982</v>
       </c>
       <c r="D59">
-        <v>2.759407627699614</v>
+        <v>11.45791510709756</v>
       </c>
       <c r="E59">
-        <v>4.274056376434297</v>
+        <v>13.05345597553499</v>
       </c>
       <c r="F59">
-        <v>3.376543309165857</v>
+        <v>18.06619808102745</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>10.49383265372684</v>
+        <v>10.6691564084386</v>
       </c>
       <c r="C60">
-        <v>18.41190295193026</v>
+        <v>2.214815681443836</v>
       </c>
       <c r="D60">
-        <v>2.778765646135609</v>
+        <v>11.63108324714956</v>
       </c>
       <c r="E60">
-        <v>4.290112657896656</v>
+        <v>13.25794539138223</v>
       </c>
       <c r="F60">
-        <v>3.414381327134802</v>
+        <v>18.35788687888734</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>10.65008822365242</v>
+        <v>10.8243777821749</v>
       </c>
       <c r="C61">
-        <v>18.70417587567448</v>
+        <v>2.209669979868862</v>
       </c>
       <c r="D61">
-        <v>2.79767901618429</v>
+        <v>11.80376405266275</v>
       </c>
       <c r="E61">
-        <v>4.304393640958643</v>
+        <v>13.46229268569583</v>
       </c>
       <c r="F61">
-        <v>3.451987353957598</v>
+        <v>18.64943909147243</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>10.80617299712398</v>
+        <v>10.9789099742411</v>
       </c>
       <c r="C62">
-        <v>18.99629720665822</v>
+        <v>2.203713046159524</v>
       </c>
       <c r="D62">
-        <v>2.816134331246432</v>
+        <v>11.97590412952042</v>
       </c>
       <c r="E62">
-        <v>4.316898798108864</v>
+        <v>13.66648005217946</v>
       </c>
       <c r="F62">
-        <v>3.489343735765425</v>
+        <v>18.94083653163496</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>10.96207521416232</v>
+        <v>11.13268119385049</v>
       </c>
       <c r="C63">
-        <v>19.28824900925976</v>
+        <v>2.196947687239026</v>
       </c>
       <c r="D63">
-        <v>2.834116897824112</v>
+        <v>12.14744060607195</v>
       </c>
       <c r="E63">
-        <v>4.327629399419884</v>
+        <v>13.87048543738269</v>
       </c>
       <c r="F63">
-        <v>3.526431269868722</v>
+        <v>19.23205654414753</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>11.1177801439395</v>
+        <v>11.2856097382503</v>
       </c>
       <c r="C64">
-        <v>19.58000895848073</v>
+        <v>2.189376815674407</v>
       </c>
       <c r="D64">
-        <v>2.851610623967505</v>
+        <v>12.31829952905806</v>
       </c>
       <c r="E64">
-        <v>4.336588484829367</v>
+        <v>14.07428132970928</v>
       </c>
       <c r="F64">
-        <v>3.563229064741479</v>
+        <v>19.52307068031272</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>11.27326926790651</v>
+        <v>11.43760253651305</v>
       </c>
       <c r="C65">
-        <v>19.87154900000539</v>
+        <v>2.181003452709577</v>
       </c>
       <c r="D65">
-        <v>2.868597890587317</v>
+        <v>12.48839319147991</v>
       </c>
       <c r="E65">
-        <v>4.343780818806417</v>
+        <v>14.27783324937355</v>
       </c>
       <c r="F65">
-        <v>3.599714405614783</v>
+        <v>19.81384289169292</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>11.42851915801999</v>
+        <v>11.5885534853083</v>
       </c>
       <c r="C66">
-        <v>20.16283353519415</v>
+        <v>2.171830732552465</v>
       </c>
       <c r="D66">
-        <v>2.885059393570883</v>
+        <v>12.65761749764164</v>
       </c>
       <c r="E66">
-        <v>4.349212849965133</v>
+        <v>14.48109775398244</v>
       </c>
       <c r="F66">
-        <v>3.635862608058317</v>
+        <v>20.10432704379883</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>11.58350002179019</v>
+        <v>11.73834161682213</v>
       </c>
       <c r="C67">
-        <v>20.45381684905496</v>
+        <v>2.161861905806627</v>
       </c>
       <c r="D67">
-        <v>2.90097398872625</v>
+        <v>12.82584871316207</v>
       </c>
       <c r="E67">
-        <v>4.352892663364307</v>
+        <v>14.68401948404276</v>
       </c>
       <c r="F67">
-        <v>3.671646831227227</v>
+        <v>20.39446346690963</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>11.7381738790093</v>
+        <v>11.88682893273034</v>
       </c>
       <c r="C68">
-        <v>20.74443952014627</v>
+        <v>2.1511003435568</v>
       </c>
       <c r="D68">
-        <v>2.916318533135594</v>
+        <v>12.99293939537717</v>
       </c>
       <c r="E68">
-        <v>4.354829925363063</v>
+        <v>14.8865277314422</v>
       </c>
       <c r="F68">
-        <v>3.707037901411159</v>
+        <v>20.68417436795949</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>11.89249138735785</v>
+        <v>12.03385802981684</v>
       </c>
       <c r="C69">
-        <v>21.03462358516101</v>
+        <v>2.139549541044374</v>
       </c>
       <c r="D69">
-        <v>2.931067671061875</v>
+        <v>13.15871349762253</v>
       </c>
       <c r="E69">
-        <v>4.355035823728457</v>
+        <v>15.08853167709473</v>
       </c>
       <c r="F69">
-        <v>3.742004127423464</v>
+        <v>20.97335649447178</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>12.04638817457568</v>
+        <v>12.17924945578129</v>
       </c>
       <c r="C70">
-        <v>21.32426462463742</v>
+        <v>2.127213122087988</v>
       </c>
       <c r="D70">
-        <v>2.945193645099456</v>
+        <v>13.32296070004796</v>
       </c>
       <c r="E70">
-        <v>4.353523007089615</v>
+        <v>15.28991388007383</v>
       </c>
       <c r="F70">
-        <v>3.776511053906094</v>
+        <v>21.26187197845941</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>12.19977975907036</v>
+        <v>12.32279880165757</v>
       </c>
       <c r="C71">
-        <v>21.61322142643868</v>
+        <v>2.11409484258361</v>
       </c>
       <c r="D71">
-        <v>2.958666101886285</v>
+        <v>13.48542998187593</v>
       </c>
       <c r="E71">
-        <v>4.350305521696527</v>
+        <v>15.49052165742691</v>
       </c>
       <c r="F71">
-        <v>3.810521232455835</v>
+        <v>21.54953509888296</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>12.35255441514822</v>
+        <v>12.46427365103651</v>
       </c>
       <c r="C72">
-        <v>21.90130086504923</v>
+        <v>2.100198595786567</v>
       </c>
       <c r="D72">
-        <v>2.971451854604988</v>
+        <v>13.64582251834685</v>
       </c>
       <c r="E72">
-        <v>4.345398740850425</v>
+        <v>15.69015576858195</v>
       </c>
       <c r="F72">
-        <v>3.843993990850756</v>
+        <v>21.83609358021624</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>12.50456271593046</v>
+        <v>12.60341034697829</v>
       </c>
       <c r="C73">
-        <v>22.18823553901832</v>
+        <v>2.085528415723419</v>
       </c>
       <c r="D73">
-        <v>2.983514698285081</v>
+        <v>13.80378420837209</v>
       </c>
       <c r="E73">
-        <v>4.338819295986782</v>
+        <v>15.88855561134165</v>
       </c>
       <c r="F73">
-        <v>3.876885117249606</v>
+        <v>22.12120337147858</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>12.65560437987537</v>
+        <v>12.73991084220775</v>
       </c>
       <c r="C74">
-        <v>22.47365278690354</v>
+        <v>2.070088483235862</v>
       </c>
       <c r="D74">
-        <v>2.994815208893929</v>
+        <v>13.95889846359625</v>
       </c>
       <c r="E74">
-        <v>4.330585005473442</v>
+        <v>16.08538046625581</v>
       </c>
       <c r="F74">
-        <v>3.909146599899677</v>
+        <v>22.40439553494451</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>12.80541004343534</v>
+        <v>12.87343991817566</v>
       </c>
       <c r="C75">
-        <v>22.75703153740148</v>
+        <v>2.053883129882085</v>
       </c>
       <c r="D75">
-        <v>3.005310614713715</v>
+        <v>14.11068027463093</v>
       </c>
       <c r="E75">
-        <v>4.320714802952113</v>
+        <v>16.28018600161845</v>
       </c>
       <c r="F75">
-        <v>3.940726289973965</v>
+        <v>22.68503412232002</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>12.95361764596307</v>
+        <v>13.00362309753235</v>
       </c>
       <c r="C76">
-        <v>23.03764562911292</v>
+        <v>2.036916844293754</v>
       </c>
       <c r="D76">
-        <v>3.014954727982234</v>
+        <v>14.25857256327605</v>
       </c>
       <c r="E76">
-        <v>4.309228662214305</v>
+        <v>16.47239533832964</v>
       </c>
       <c r="F76">
-        <v>3.971567587868186</v>
+        <v>22.9622664525418</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>13.09974332933051</v>
+        <v>13.13004529845592</v>
       </c>
       <c r="C77">
-        <v>23.31449409681619</v>
+        <v>2.01919427766691</v>
       </c>
       <c r="D77">
-        <v>3.023697974632507</v>
+        <v>14.40194849121822</v>
       </c>
       <c r="E77">
-        <v>4.296147524923468</v>
+        <v>16.66126854190576</v>
       </c>
       <c r="F77">
-        <v>4.001609128701769</v>
+        <v>23.23496915754313</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>13.24314792691309</v>
+        <v>13.25225266923444</v>
       </c>
       <c r="C78">
-        <v>23.58622400642776</v>
+        <v>2.000720249377322</v>
       </c>
       <c r="D78">
-        <v>3.031487617703822</v>
+        <v>14.54011923021582</v>
       </c>
       <c r="E78">
-        <v>4.281493227385104</v>
+        <v>16.84587126200969</v>
       </c>
       <c r="F78">
-        <v>4.030784470511033</v>
+        <v>23.50169922582613</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>13.38300308077431</v>
+        <v>13.36975593810809</v>
       </c>
       <c r="C79">
-        <v>23.85105955175708</v>
+        <v>1.981499755838224</v>
       </c>
       <c r="D79">
-        <v>3.038268197352272</v>
+        <v>14.67235068986193</v>
       </c>
       <c r="E79">
-        <v>4.265288427429819</v>
+        <v>17.0250494612838</v>
       </c>
       <c r="F79">
-        <v>4.05902181343676</v>
+        <v>23.76066187302817</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>13.51826497099399</v>
+        <v>13.4820376637177</v>
       </c>
       <c r="C80">
-        <v>24.10676143765406</v>
+        <v>1.961537974162059</v>
       </c>
       <c r="D80">
-        <v>3.043982234813885</v>
+        <v>14.79789061438969</v>
       </c>
       <c r="E80">
-        <v>4.247556532921709</v>
+        <v>17.19742085959059</v>
       </c>
       <c r="F80">
-        <v>4.086243785418929</v>
+        <v>24.00971554991126</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>13.6476687508894</v>
+        <v>13.58856438037641</v>
       </c>
       <c r="C81">
-        <v>24.35065082770938</v>
+        <v>1.940840274900461</v>
       </c>
       <c r="D81">
-        <v>3.048571328713424</v>
+        <v>14.91600547987944</v>
       </c>
       <c r="E81">
-        <v>4.228321631579409</v>
+        <v>17.36139619429375</v>
       </c>
       <c r="F81">
-        <v>4.112367339719492</v>
+        <v>24.24643555026734</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>13.76976072417011</v>
+        <v>13.68880411308824</v>
       </c>
       <c r="C82">
-        <v>24.57973539032301</v>
+        <v>1.919412225597824</v>
       </c>
       <c r="D82">
-        <v>3.051977646231573</v>
+        <v>15.02602471575152</v>
       </c>
       <c r="E82">
-        <v>4.207608421482461</v>
+        <v>17.51524655179029</v>
       </c>
       <c r="F82">
-        <v>4.137303829225595</v>
+        <v>24.46825493947485</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>13.88298563876804</v>
+        <v>13.7822489201568</v>
       </c>
       <c r="C83">
-        <v>24.79096278842447</v>
+        <v>1.897259605311883</v>
       </c>
       <c r="D83">
-        <v>3.05414581584063</v>
+        <v>15.12738732503948</v>
       </c>
       <c r="E83">
-        <v>4.18544214412184</v>
+        <v>17.65722092307934</v>
       </c>
       <c r="F83">
-        <v>4.160959349681118</v>
+        <v>24.67268614747132</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>13.9858315307564</v>
+        <v>13.86844229217204</v>
       </c>
       <c r="C84">
-        <v>24.98158783586068</v>
+        <v>1.874388410546609</v>
       </c>
       <c r="D84">
-        <v>3.055025173696593</v>
+        <v>15.21968495907003</v>
       </c>
       <c r="E84">
-        <v>4.161848519882919</v>
+        <v>17.78571562804416</v>
       </c>
       <c r="F84">
-        <v>4.183235452783191</v>
+        <v>24.85759925267476</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>14.07702100538708</v>
+        <v>13.94700923227398</v>
       </c>
       <c r="C85">
-        <v>25.1495831499219</v>
+        <v>1.850804869872195</v>
       </c>
       <c r="D85">
-        <v>3.054572183203767</v>
+        <v>15.30269407663615</v>
       </c>
       <c r="E85">
-        <v>4.136853685268934</v>
+        <v>17.89946770602359</v>
       </c>
       <c r="F85">
-        <v>4.204030414021853</v>
+        <v>25.02150206301797</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>14.15570398500417</v>
+        <v>14.01768582182271</v>
       </c>
       <c r="C86">
-        <v>25.29397704129396</v>
+        <v>1.826515455302544</v>
       </c>
       <c r="D86">
-        <v>3.052752825933759</v>
+        <v>15.37639212603922</v>
       </c>
       <c r="E86">
-        <v>4.110484131048027</v>
+        <v>17.99772992177778</v>
       </c>
       <c r="F86">
-        <v>4.223241443435708</v>
+        <v>25.16374890493316</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>14.22159627291568</v>
+        <v>14.08034406870808</v>
       </c>
       <c r="C87">
-        <v>25.41499959392815</v>
+        <v>1.801526894050156</v>
       </c>
       <c r="D87">
-        <v>3.049544663512431</v>
+        <v>15.44095502168424</v>
       </c>
       <c r="E87">
-        <v>4.082766646142541</v>
+        <v>18.08037881169492</v>
       </c>
       <c r="F87">
-        <v>4.240767584456306</v>
+        <v>25.28461711441879</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>14.27501741038143</v>
+        <v>14.13500863159808</v>
       </c>
       <c r="C88">
-        <v>25.51399585987299</v>
+        <v>1.775846189767967</v>
       </c>
       <c r="D88">
-        <v>3.044938249476464</v>
+        <v>15.49673611102023</v>
       </c>
       <c r="E88">
-        <v>4.053728262080517</v>
+        <v>18.14792312752865</v>
       </c>
       <c r="F88">
-        <v>4.256513853458517</v>
+        <v>25.38523134225204</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>14.31681723628753</v>
+        <v>14.18185930857404</v>
       </c>
       <c r="C89">
-        <v>25.59314535222053</v>
+        <v>1.749480628825753</v>
       </c>
       <c r="D89">
-        <v>3.038937776942208</v>
+        <v>15.54423460529691</v>
       </c>
       <c r="E89">
-        <v>4.023396200866748</v>
+        <v>18.2014125525488</v>
       </c>
       <c r="F89">
-        <v>4.270396834046688</v>
+        <v>25.46736610055848</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>14.3482217242524</v>
+        <v>14.22122312525592</v>
       </c>
       <c r="C90">
-        <v>25.65509439595305</v>
+        <v>1.722437811920944</v>
       </c>
       <c r="D90">
-        <v>3.031560866519679</v>
+        <v>15.58405517519793</v>
       </c>
       <c r="E90">
-        <v>3.991797823284799</v>
+        <v>18.24227781497425</v>
       </c>
       <c r="F90">
-        <v>4.282351324675334</v>
+        <v>25.53318958992775</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>14.37065029558768</v>
+        <v>14.25355262509905</v>
       </c>
       <c r="C91">
-        <v>25.70260818609247</v>
+        <v>1.694725660425554</v>
       </c>
       <c r="D91">
-        <v>3.022837533643289</v>
+        <v>15.61686513761239</v>
       </c>
       <c r="E91">
-        <v>3.958960585314381</v>
+        <v>18.27214840699676</v>
       </c>
       <c r="F91">
-        <v>4.292337482908131</v>
+        <v>25.58501395779559</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>14.38555203954138</v>
+        <v>14.27939526416752</v>
       </c>
       <c r="C92">
-        <v>25.73831423642498</v>
+        <v>1.666352452365881</v>
       </c>
       <c r="D92">
-        <v>3.012808592014699</v>
+        <v>15.64335792276803</v>
       </c>
       <c r="E92">
-        <v>3.924911993109611</v>
+        <v>18.2926887901545</v>
       </c>
       <c r="F92">
-        <v>4.300347741689999</v>
+        <v>25.62509630056301</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>14.39428754656154</v>
+        <v>14.29935900561373</v>
       </c>
       <c r="C93">
-        <v>25.76454975439136</v>
+        <v>1.637326835750082</v>
       </c>
       <c r="D93">
-        <v>3.00152368403858</v>
+        <v>15.66422137505075</v>
       </c>
       <c r="E93">
-        <v>3.889679561550942</v>
+        <v>18.30547674939365</v>
       </c>
       <c r="F93">
-        <v>4.306411828199487</v>
+        <v>25.65550719591409</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>14.39806109424286</v>
+        <v>14.31407803191532</v>
       </c>
       <c r="C94">
-        <v>25.78329768832755</v>
+        <v>1.607657864394933</v>
       </c>
       <c r="D94">
-        <v>2.989039198612562</v>
+        <v>15.68011420450806</v>
       </c>
       <c r="E94">
-        <v>3.853290776254567</v>
+        <v>18.31192929941918</v>
       </c>
       <c r="F94">
-        <v>4.310598434681052</v>
+        <v>25.6780622402311</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>14.39789430363226</v>
+        <v>14.3241826824158</v>
       </c>
       <c r="C95">
-        <v>25.79618577716251</v>
+        <v>1.577355026393508</v>
       </c>
       <c r="D95">
-        <v>2.975416260853233</v>
+        <v>15.69165047616517</v>
       </c>
       <c r="E95">
-        <v>3.815773059958039</v>
+        <v>18.31326945588583</v>
       </c>
       <c r="F95">
-        <v>4.313012566219674</v>
+        <v>25.69430154871575</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>14.39462771594572</v>
+        <v>14.33027586372901</v>
       </c>
       <c r="C96">
-        <v>25.80451862697171</v>
+        <v>1.546428271784982</v>
       </c>
       <c r="D96">
-        <v>2.960718917728259</v>
+        <v>15.69939051058748</v>
       </c>
       <c r="E96">
-        <v>3.777153739675556</v>
+        <v>18.3105222383573</v>
       </c>
       <c r="F96">
-        <v>4.313788653416241</v>
+        <v>25.70550021455519</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>14.38893794750508</v>
+        <v>14.33291656819486</v>
       </c>
       <c r="C97">
-        <v>25.8093249163703</v>
+        <v>1.514888068944431</v>
       </c>
       <c r="D97">
-        <v>2.945012591344747</v>
+        <v>15.70383707826036</v>
       </c>
       <c r="E97">
-        <v>3.737460015928503</v>
+        <v>18.30452838834041</v>
       </c>
       <c r="F97">
-        <v>4.313080750164882</v>
+        <v>25.71269547983802</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>14.3813613560013</v>
+        <v>14.33261025977419</v>
       </c>
       <c r="C98">
-        <v>25.81140656519433</v>
+        <v>1.482745417557578</v>
       </c>
       <c r="D98">
-        <v>2.928362820300928</v>
+        <v>15.70543547507409</v>
       </c>
       <c r="E98">
-        <v>3.696718937769495</v>
+        <v>18.29596679018994</v>
       </c>
       <c r="F98">
-        <v>4.311051858550002</v>
+        <v>25.71672053805203</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>14.37231863286374</v>
+        <v>14.32980481050875</v>
       </c>
       <c r="C99">
-        <v>25.81138437984249</v>
+        <v>1.450011933869532</v>
       </c>
       <c r="D99">
-        <v>2.910834271947008</v>
+        <v>15.70457609276204</v>
       </c>
       <c r="E99">
-        <v>3.654957378799034</v>
+        <v>18.28537953031019</v>
       </c>
       <c r="F99">
-        <v>4.307864289665796</v>
+        <v>25.7182388360514</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>14.36213759196175</v>
+        <v>14.32489066644442</v>
       </c>
       <c r="C100">
-        <v>25.80973692439017</v>
+        <v>1.416699864748148</v>
       </c>
       <c r="D100">
-        <v>2.892489985132813</v>
+        <v>15.70159855549907</v>
       </c>
       <c r="E100">
-        <v>3.612202015863058</v>
+        <v>18.27319618692974</v>
       </c>
       <c r="F100">
-        <v>4.303672286053111</v>
+        <v>25.71777569928204</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>14.35107261818391</v>
+        <v>14.31820387723348</v>
       </c>
       <c r="C101">
-        <v>25.80683210890234</v>
+        <v>1.382822186224314</v>
       </c>
       <c r="D101">
-        <v>2.873390844240399</v>
+        <v>15.69679661051802</v>
       </c>
       <c r="E101">
-        <v>3.568479308621008</v>
+        <v>18.25975549937165</v>
       </c>
       <c r="F101">
-        <v>4.2986172750983</v>
+        <v>25.71574550300004</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>14.33932056898126</v>
+        <v>14.31003078753955</v>
       </c>
       <c r="C102">
-        <v>25.80295267358481</v>
+        <v>1.348392639014286</v>
       </c>
       <c r="D102">
-        <v>2.853595233736445</v>
+        <v>15.6904232225779</v>
       </c>
       <c r="E102">
-        <v>3.523815486001928</v>
+        <v>18.24532375653725</v>
       </c>
       <c r="F102">
-        <v>4.292825492279111</v>
+        <v>25.71247452696311</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>14.32703375890268</v>
+        <v>14.30061352539275</v>
       </c>
       <c r="C103">
-        <v>25.79831593789627</v>
+        <v>1.313425826981075</v>
       </c>
       <c r="D103">
-        <v>2.833158811058683</v>
+        <v>15.68269558385573</v>
       </c>
       <c r="E103">
-        <v>3.478236531535736</v>
+        <v>18.23010992349197</v>
       </c>
       <c r="F103">
-        <v>4.286407403229244</v>
+        <v>25.70821942445752</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>14.31433005375687</v>
+        <v>14.29015564566867</v>
       </c>
       <c r="C104">
-        <v>25.79308925434376</v>
+        <v>1.277937302984058</v>
       </c>
       <c r="D104">
-        <v>2.812134371404152</v>
+        <v>15.67379984709392</v>
       </c>
       <c r="E104">
-        <v>3.431768172020249</v>
+        <v>18.21427790259142</v>
       </c>
       <c r="F104">
-        <v>4.279458304298836</v>
+        <v>25.70318211580836</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>14.30130075453638</v>
+        <v>14.27882757355741</v>
       </c>
       <c r="C105">
-        <v>25.78740162535574</v>
+        <v>1.241943641095267</v>
       </c>
       <c r="D105">
-        <v>2.790571815337245</v>
+        <v>15.66389539443806</v>
       </c>
       <c r="E105">
-        <v>3.384435867593083</v>
+        <v>18.19795630635605</v>
       </c>
       <c r="F105">
-        <v>4.272059589206163</v>
+        <v>25.69752171555111</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>14.28801675122395</v>
+        <v>14.26677162706886</v>
       </c>
       <c r="C106">
-        <v>25.78135281643586</v>
+        <v>1.205462614603947</v>
       </c>
       <c r="D106">
-        <v>2.76851817039215</v>
+        <v>15.65311861179826</v>
       </c>
       <c r="E106">
-        <v>3.336264807181686</v>
+        <v>18.18124621829192</v>
       </c>
       <c r="F106">
-        <v>4.264280318085872</v>
+        <v>25.69136372071383</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>14.27453317139591</v>
+        <v>14.25410645052789</v>
       </c>
       <c r="C107">
-        <v>25.77502012509251</v>
+        <v>1.168513223328319</v>
       </c>
       <c r="D107">
-        <v>2.746017655614224</v>
+        <v>15.64158621511046</v>
       </c>
       <c r="E107">
-        <v>3.287279903171096</v>
+        <v>18.16422715722467</v>
       </c>
       <c r="F107">
-        <v>4.256178844900613</v>
+        <v>25.68480728447121</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>14.26089299251221</v>
+        <v>14.2409308542362</v>
       </c>
       <c r="C108">
-        <v>25.76846363962352</v>
+        <v>1.131115972021189</v>
       </c>
       <c r="D108">
-        <v>2.72311177116163</v>
+        <v>15.62939815262283</v>
       </c>
       <c r="E108">
-        <v>3.237505788514062</v>
+        <v>18.14696179817999</v>
       </c>
       <c r="F108">
-        <v>4.247804365510211</v>
+        <v>25.67793097685164</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>14.24712983267729</v>
+        <v>14.22732711737401</v>
       </c>
       <c r="C109">
-        <v>25.76173019641216</v>
+        <v>1.093292883747422</v>
       </c>
       <c r="D109">
-        <v>2.699839411711928</v>
+        <v>15.61664009868225</v>
       </c>
       <c r="E109">
-        <v>3.186966817294642</v>
+        <v>18.12949966731371</v>
       </c>
       <c r="F109">
-        <v>4.239198319075695</v>
+        <v>25.67079717162702</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>14.23327004340577</v>
+        <v>14.21336379294831</v>
       </c>
       <c r="C110">
-        <v>25.75485641344442</v>
+        <v>1.055067855848328</v>
       </c>
       <c r="D110">
-        <v>2.676236992444842</v>
+        <v>15.60338558454302</v>
       </c>
       <c r="E110">
-        <v>3.135687067399641</v>
+        <v>18.11187998830248</v>
       </c>
       <c r="F110">
-        <v>4.230395617030938</v>
+        <v>25.66345550169295</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>14.2193343402985</v>
+        <v>14.19909804849392</v>
       </c>
       <c r="C111">
-        <v>25.74787101516753</v>
+        <v>1.016466819016439</v>
       </c>
       <c r="D111">
-        <v>2.652338580257987</v>
+        <v>15.58969781264716</v>
       </c>
       <c r="E111">
-        <v>3.083690344480226</v>
+        <v>18.0941338934647</v>
       </c>
       <c r="F111">
-        <v>4.221425696432805</v>
+        <v>25.65594558849095</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>14.20533906802143</v>
+        <v>14.18457763337964</v>
       </c>
       <c r="C112">
-        <v>25.74079658289793</v>
+        <v>0.9775180163234405</v>
       </c>
       <c r="D112">
-        <v>2.628176027636388</v>
+        <v>15.57563119164188</v>
       </c>
       <c r="E112">
-        <v>3.031000187122487</v>
+        <v>18.07628615450596</v>
       </c>
       <c r="F112">
-        <v>4.21231341537812</v>
+        <v>25.64829913672136</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>14.19129715219847</v>
+        <v>14.16984248078737</v>
       </c>
       <c r="C113">
-        <v>25.73365091996668</v>
+        <v>0.9382523008364735</v>
       </c>
       <c r="D113">
-        <v>2.603779105618369</v>
+        <v>15.56123264673956</v>
       </c>
       <c r="E113">
-        <v>2.977639878052875</v>
+        <v>18.05835654586052</v>
       </c>
       <c r="F113">
-        <v>4.203079812415838</v>
+        <v>25.64054157997398</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>14.17721884442744</v>
+        <v>14.15492605266888</v>
       </c>
       <c r="C114">
-        <v>25.72644814427138</v>
+        <v>0.8987035135452012</v>
       </c>
       <c r="D114">
-        <v>2.579175634594322</v>
+        <v>15.54654272605305</v>
       </c>
       <c r="E114">
-        <v>2.923632455952107</v>
+        <v>18.04036088498289</v>
       </c>
       <c r="F114">
-        <v>4.193742732575433</v>
+        <v>25.63269338568101</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>14.16311229734272</v>
+        <v>14.13985644644401</v>
       </c>
       <c r="C115">
-        <v>25.71919950109746</v>
+        <v>0.8589089249732583</v>
       </c>
       <c r="D115">
-        <v>2.554391610324957</v>
+        <v>15.5315965358187</v>
       </c>
       <c r="E115">
-        <v>2.869000717822277</v>
+        <v>18.02231185721503</v>
       </c>
       <c r="F115">
-        <v>4.184317337147733</v>
+        <v>25.62477104988008</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>14.14898400954617</v>
+        <v>14.12465730602658</v>
       </c>
       <c r="C116">
-        <v>25.71191394265371</v>
+        <v>0.8189097456413451</v>
       </c>
       <c r="D116">
-        <v>2.52945132512498</v>
+        <v>15.51642453216899</v>
       </c>
       <c r="E116">
-        <v>2.813767255224491</v>
+        <v>18.00421966077409</v>
       </c>
       <c r="F116">
-        <v>4.174816541065249</v>
+        <v>25.61678791259479</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>14.13483919391393</v>
+        <v>14.10934857234</v>
       </c>
       <c r="C117">
-        <v>25.7045985898804</v>
+        <v>0.7787517173500433</v>
       </c>
       <c r="D117">
-        <v>2.50437748167437</v>
+        <v>15.50105319198078</v>
       </c>
       <c r="E117">
-        <v>2.757954434637244</v>
+        <v>17.98609250965901</v>
       </c>
       <c r="F117">
-        <v>4.165251380463469</v>
+        <v>25.608754823002</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>14.12068204742572</v>
+        <v>14.09394710262614</v>
       </c>
       <c r="C118">
-        <v>25.69725912939244</v>
+        <v>0.7384858505464699</v>
       </c>
       <c r="D118">
-        <v>2.479191303234091</v>
+        <v>15.48550558119364</v>
       </c>
       <c r="E118">
-        <v>2.701584471820177</v>
+        <v>17.96793704935108</v>
       </c>
       <c r="F118">
-        <v>4.155631308699817</v>
+        <v>25.60068062351319</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>14.10651594972009</v>
+        <v>14.07846718046181</v>
       </c>
       <c r="C119">
-        <v>25.68990013503083</v>
+        <v>0.6981692744579702</v>
       </c>
       <c r="D119">
-        <v>2.45391263237362</v>
+        <v>15.46980183600741</v>
       </c>
       <c r="E119">
-        <v>2.64467938880182</v>
+        <v>17.94975867806436</v>
       </c>
       <c r="F119">
-        <v>4.145964445069453</v>
+        <v>25.59257252359574</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>14.0923436203774</v>
+        <v>14.06292094088034</v>
       </c>
       <c r="C120">
-        <v>25.68252530368797</v>
+        <v>0.6578663077649779</v>
       </c>
       <c r="D120">
-        <v>2.42856002737296</v>
+        <v>15.45395957306544</v>
       </c>
       <c r="E120">
-        <v>2.587261113879686</v>
+        <v>17.93156181709064</v>
       </c>
       <c r="F120">
-        <v>4.136257779943786</v>
+        <v>25.58443639958838</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>14.07816724693263</v>
+        <v>14.04731871656291</v>
       </c>
       <c r="C121">
-        <v>25.6751376246337</v>
+        <v>0.617649627728986</v>
       </c>
       <c r="D121">
-        <v>2.403150852169204</v>
+        <v>15.4379942349153</v>
       </c>
       <c r="E121">
-        <v>2.529351435870201</v>
+        <v>17.91335003187401</v>
       </c>
       <c r="F121">
-        <v>4.126517349199788</v>
+        <v>25.57627705387796</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>14.06398860442402</v>
+        <v>14.03166932726129</v>
       </c>
       <c r="C122">
-        <v>25.66773951492464</v>
+        <v>0.5776016986532913</v>
       </c>
       <c r="D122">
-        <v>2.377701358817037</v>
+        <v>15.42191937771535</v>
       </c>
       <c r="E122">
-        <v>2.47097210944464</v>
+        <v>17.89512622355708</v>
       </c>
       <c r="F122">
-        <v>4.116748378024598</v>
+        <v>25.56809843438558</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>14.04980914385304</v>
+        <v>14.01598031479094</v>
       </c>
       <c r="C123">
-        <v>25.66033292097228</v>
+        <v>0.5378164974272382</v>
       </c>
       <c r="D123">
-        <v>2.35222676636732</v>
+        <v>15.40574693588919</v>
       </c>
       <c r="E123">
-        <v>2.412144819939385</v>
+        <v>17.87689276716276</v>
       </c>
       <c r="F123">
-        <v>4.106955397071572</v>
+        <v>25.55990380521431</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>14.03563005139093</v>
+        <v>14.00025814759432</v>
       </c>
       <c r="C124">
-        <v>25.65291944031455</v>
+        <v>0.4984015300416092</v>
       </c>
       <c r="D124">
-        <v>2.326741330738188</v>
+        <v>15.38948746848022</v>
       </c>
       <c r="E124">
-        <v>2.352891295404395</v>
+        <v>17.85865161495864</v>
       </c>
       <c r="F124">
-        <v>4.097142350557577</v>
+        <v>25.55169586584714</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>14.02145229662735</v>
+        <v>13.98450837970772</v>
       </c>
       <c r="C125">
-        <v>25.64550036015915</v>
+        <v>0.4594801425081259</v>
       </c>
       <c r="D125">
-        <v>2.301258411604397</v>
+        <v>15.37315029479239</v>
       </c>
       <c r="E125">
-        <v>2.293233274134244</v>
+        <v>17.84040437615421</v>
       </c>
       <c r="F125">
-        <v>4.08731268406121</v>
+        <v>25.54347684890516</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>14.00727667266585</v>
+        <v>13.96873582549709</v>
       </c>
       <c r="C126">
-        <v>25.63807676858668</v>
+        <v>0.4211941239099122</v>
       </c>
       <c r="D126">
-        <v>2.275790534513395</v>
+        <v>15.35674366650652</v>
       </c>
       <c r="E126">
-        <v>2.233192642334133</v>
+        <v>17.82215238334452</v>
       </c>
       <c r="F126">
-        <v>4.077469410340609</v>
+        <v>25.53524860304872</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>13.99310382452406</v>
+        <v>13.95294464286932</v>
       </c>
       <c r="C127">
-        <v>25.63064955125121</v>
+        <v>0.3837065312701912</v>
       </c>
       <c r="D127">
-        <v>2.250349447759849</v>
+        <v>15.34027491988214</v>
       </c>
       <c r="E127">
-        <v>2.172791389759932</v>
+        <v>17.80389673203669</v>
       </c>
       <c r="F127">
-        <v>4.067615169419183</v>
+        <v>25.52701265472124</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>13.97893429252201</v>
+        <v>13.93713841806292</v>
       </c>
       <c r="C128">
-        <v>25.62321941840485</v>
+        <v>0.3472045320664942</v>
       </c>
       <c r="D128">
-        <v>2.2249461761037</v>
+        <v>15.32375055320268</v>
       </c>
       <c r="E128">
-        <v>2.112051790777504</v>
+        <v>17.78563832474428</v>
       </c>
       <c r="F128">
-        <v>4.057752279060879</v>
+        <v>25.51877029099958</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>13.964768510228</v>
+        <v>13.92132026301152</v>
       </c>
       <c r="C129">
-        <v>25.61578698308996</v>
+        <v>0.3119018548833812</v>
       </c>
       <c r="D129">
-        <v>2.199591068948007</v>
+        <v>15.30717636001073</v>
       </c>
       <c r="E129">
-        <v>2.050996342246284</v>
+        <v>17.76737790841027</v>
       </c>
       <c r="F129">
-        <v>4.047882779698485</v>
+        <v>25.51052257470957</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>13.95060686105022</v>
+        <v>13.9054928839883</v>
       </c>
       <c r="C130">
-        <v>25.60835271924893</v>
+        <v>0.2780402460198376</v>
       </c>
       <c r="D130">
-        <v>2.174293845388803</v>
+        <v>15.29055751015443</v>
       </c>
       <c r="E130">
-        <v>1.989647991156476</v>
+        <v>17.74911610693706</v>
       </c>
       <c r="F130">
-        <v>4.038008471539611</v>
+        <v>25.50227041844054</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>13.93644964418993</v>
+        <v>13.88965863469419</v>
       </c>
       <c r="C131">
-        <v>25.60091702788586</v>
+        <v>0.2458881394945916</v>
       </c>
       <c r="D131">
-        <v>2.149063636449075</v>
+        <v>15.27389863922568</v>
       </c>
       <c r="E131">
-        <v>1.928030071508432</v>
+        <v>17.73085344510499</v>
       </c>
       <c r="F131">
-        <v>4.02813094869459</v>
+        <v>25.49401458738222</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>13.92229712494402</v>
+        <v>13.87381957415129</v>
       </c>
       <c r="C132">
-        <v>25.59348024136106</v>
+        <v>0.2157356423259708</v>
       </c>
       <c r="D132">
-        <v>2.123909023631663</v>
+        <v>15.25720389378319</v>
       </c>
       <c r="E132">
-        <v>1.86616656697622</v>
+        <v>17.712590357151</v>
       </c>
       <c r="F132">
-        <v>4.018251625119349</v>
+        <v>25.48575570438409</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>13.90814951477348</v>
+        <v>13.85797750668524</v>
       </c>
       <c r="C133">
-        <v>25.58604263489598</v>
+        <v>0.1878826092065831</v>
       </c>
       <c r="D133">
-        <v>2.098838075023296</v>
+        <v>15.24047699426717</v>
       </c>
       <c r="E133">
-        <v>1.804082069749146</v>
+        <v>17.69432722441408</v>
       </c>
       <c r="F133">
-        <v>4.008371757176977</v>
+        <v>25.47749432545652</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>13.8940069889573</v>
+        <v>13.84213401985912</v>
       </c>
       <c r="C134">
-        <v>25.5786044434308</v>
+        <v>0.162617566623065</v>
       </c>
       <c r="D134">
-        <v>2.07385837828534</v>
+        <v>15.22372128726212</v>
       </c>
       <c r="E134">
-        <v>1.741802020436786</v>
+        <v>17.67606434149653</v>
       </c>
       <c r="F134">
-        <v>3.99849246405909</v>
+        <v>25.4692308863608</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>13.87986969717062</v>
+        <v>13.82629050320694</v>
       </c>
       <c r="C135">
-        <v>25.57116586300521</v>
+        <v>0.1401865839518605</v>
       </c>
       <c r="D135">
-        <v>2.048977070783196</v>
+        <v>15.20693978419867</v>
       </c>
       <c r="E135">
-        <v>1.679352857916054</v>
+        <v>17.65780198100038</v>
       </c>
       <c r="F135">
-        <v>3.988614743399948</v>
+        <v>25.4609657699236</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>13.86573776096242</v>
+        <v>13.8104481804448</v>
       </c>
       <c r="C136">
-        <v>25.56372705453695</v>
+        <v>0.1207541413992526</v>
       </c>
       <c r="D136">
-        <v>2.024200867954156</v>
+        <v>15.19013520031822</v>
       </c>
       <c r="E136">
-        <v>1.616762192595563</v>
+        <v>17.63954034958353</v>
       </c>
       <c r="F136">
-        <v>3.978739486717738</v>
+        <v>25.45269929319439</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>13.85161128554294</v>
+        <v>13.79460813161726</v>
       </c>
       <c r="C137">
-        <v>25.55628815694799</v>
+        <v>0.1043642609393877</v>
       </c>
       <c r="D137">
-        <v>1.999536087255292</v>
+        <v>15.17330998875327</v>
       </c>
       <c r="E137">
-        <v>1.554059006758229</v>
+        <v>17.62127963176657</v>
       </c>
       <c r="F137">
-        <v>3.968867490911743</v>
+        <v>25.4444317280979</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>13.83749035920705</v>
+        <v>13.77877130894123</v>
       </c>
       <c r="C138">
-        <v>25.54884928202946</v>
+        <v>0.09091627475200838</v>
       </c>
       <c r="D138">
-        <v>1.974988680049241</v>
+        <v>15.15646636589457</v>
       </c>
       <c r="E138">
-        <v>1.491273873526227</v>
+        <v>17.6030199779499</v>
       </c>
       <c r="F138">
-        <v>3.958999476114526</v>
+        <v>25.4361633107311</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>13.82337505926725</v>
+        <v>13.76293855278525</v>
       </c>
       <c r="C139">
-        <v>25.54141052500235</v>
+        <v>0.08016700608613792</v>
       </c>
       <c r="D139">
-        <v>1.950564242019476</v>
+        <v>15.13960634486164</v>
       </c>
       <c r="E139">
-        <v>1.428439274208268</v>
+        <v>17.58476151858435</v>
       </c>
       <c r="F139">
-        <v>3.949136083834988</v>
+        <v>25.42789423666368</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>13.80926545105126</v>
+        <v>13.74711061849583</v>
       </c>
       <c r="C140">
-        <v>25.53397196626126</v>
+        <v>0.07176382576361431</v>
       </c>
       <c r="D140">
-        <v>1.926268052634099</v>
+        <v>15.1227317495524</v>
       </c>
       <c r="E140">
-        <v>1.365589944037321</v>
+        <v>17.56650436492055</v>
       </c>
       <c r="F140">
-        <v>3.939277904034844</v>
+        <v>25.41962468264297</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>13.79516159015612</v>
+        <v>13.73128816088399</v>
       </c>
       <c r="C141">
-        <v>25.52653367353195</v>
+        <v>0.06529810483287919</v>
       </c>
       <c r="D141">
-        <v>1.902105070840477</v>
+        <v>15.10584424245587</v>
       </c>
       <c r="E141">
-        <v>1.302763198376463</v>
+        <v>17.54824861228474</v>
       </c>
       <c r="F141">
-        <v>3.929425457567872</v>
+        <v>25.41135479096504</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>13.78106352519066</v>
+        <v>13.71547179356818</v>
       </c>
       <c r="C142">
-        <v>25.5190957050426</v>
+        <v>0.06036056712391063</v>
       </c>
       <c r="D142">
-        <v>1.878079975785573</v>
+        <v>15.08894534602724</v>
       </c>
       <c r="E142">
-        <v>1.239999504762956</v>
+        <v>17.52999434404695</v>
       </c>
       <c r="F142">
-        <v>3.919579228022136</v>
+        <v>25.40308468879144</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>13.76697129634623</v>
+        <v>13.69966202756218</v>
       </c>
       <c r="C143">
-        <v>25.51165811018991</v>
+        <v>0.05658258903402694</v>
       </c>
       <c r="D143">
-        <v>1.85419716251521</v>
+        <v>15.07203643234374</v>
       </c>
       <c r="E143">
-        <v>1.177342962917651</v>
+        <v>17.51174162844183</v>
       </c>
       <c r="F143">
-        <v>3.909739642343411</v>
+        <v>25.3948144813345</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>13.75288493906636</v>
+        <v>13.68385935862923</v>
       </c>
       <c r="C144">
-        <v>25.50422093027079</v>
+        <v>0.05365797851921785</v>
       </c>
       <c r="D144">
-        <v>1.830460772156049</v>
+        <v>15.055118777378</v>
       </c>
       <c r="E144">
-        <v>1.114842074839851</v>
+        <v>17.4934905274843</v>
       </c>
       <c r="F144">
-        <v>3.899907095563133</v>
+        <v>25.38654426014067</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>13.73880448366833</v>
+        <v>13.66806419334513</v>
       </c>
       <c r="C145">
-        <v>25.49678420114975</v>
+        <v>0.05134743194308744</v>
       </c>
       <c r="D145">
-        <v>1.806874697878627</v>
+        <v>15.03819351965811</v>
       </c>
       <c r="E145">
-        <v>1.052550528899097</v>
+        <v>17.47524109124011</v>
       </c>
       <c r="F145">
-        <v>3.890081941295228</v>
+        <v>25.37827410423093</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>13.7247299568566</v>
+        <v>13.65227692257906</v>
       </c>
       <c r="C146">
-        <v>25.48934795251997</v>
+        <v>0.04947230050841091</v>
       </c>
       <c r="D146">
-        <v>1.783442601091596</v>
+        <v>15.02126172349928</v>
       </c>
       <c r="E146">
-        <v>0.9905281638301049</v>
+        <v>17.45699336421275</v>
       </c>
       <c r="F146">
-        <v>3.880264504483086</v>
+        <v>25.37000408119653</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>13.71066138224544</v>
+        <v>13.63649787691617</v>
       </c>
       <c r="C147">
-        <v>25.4819122099125</v>
+        <v>0.04790364983458463</v>
       </c>
       <c r="D147">
-        <v>1.760167926500274</v>
+        <v>15.00432434512529</v>
       </c>
       <c r="E147">
-        <v>0.9288421864705073</v>
+        <v>17.43874738426263</v>
       </c>
       <c r="F147">
-        <v>3.870455080983986</v>
+        <v>25.36173425111817</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>13.69659878062938</v>
+        <v>13.62072736369485</v>
       </c>
       <c r="C148">
-        <v>25.4744769952445</v>
+        <v>0.04655079242363074</v>
       </c>
       <c r="D148">
-        <v>1.73705390708661</v>
+        <v>14.98738227372828</v>
       </c>
       <c r="E148">
-        <v>0.8675686794600407</v>
+        <v>17.42050318467397</v>
       </c>
       <c r="F148">
-        <v>3.860653941716218</v>
+        <v>25.35346466470188</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>13.682542170821</v>
+        <v>13.60496565278185</v>
       </c>
       <c r="C149">
-        <v>25.46704232721336</v>
+        <v>0.04535110045225976</v>
       </c>
       <c r="D149">
-        <v>1.714103584860205</v>
+        <v>14.97043631910535</v>
       </c>
       <c r="E149">
-        <v>0.8067944386588165</v>
+        <v>17.40226079453954</v>
       </c>
       <c r="F149">
-        <v>3.850861336169519</v>
+        <v>25.34519536708968</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>13.66849156906302</v>
+        <v>13.58921299217236</v>
       </c>
       <c r="C150">
-        <v>25.45960822204627</v>
+        <v>0.04426183626801486</v>
       </c>
       <c r="D150">
-        <v>1.69131980827443</v>
+        <v>14.95348723307829</v>
       </c>
       <c r="E150">
-        <v>0.746619169077149</v>
+        <v>17.3840202395153</v>
       </c>
       <c r="F150">
-        <v>3.841077492422853</v>
+        <v>25.33692639667213</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>13.65444699039204</v>
+        <v>13.57346960144622</v>
       </c>
       <c r="C151">
-        <v>25.45217469369971</v>
+        <v>0.04325412216540787</v>
       </c>
       <c r="D151">
-        <v>1.668705254002218</v>
+        <v>14.93653570259145</v>
       </c>
       <c r="E151">
-        <v>0.6871583946689739</v>
+        <v>17.36578154229526</v>
       </c>
       <c r="F151">
-        <v>3.831302621961207</v>
+        <v>25.32865778686276</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>13.64040844790826</v>
+        <v>13.55773568441385</v>
       </c>
       <c r="C152">
-        <v>25.44474175404954</v>
+        <v>0.04230860756825031</v>
       </c>
       <c r="D152">
-        <v>1.646262423563778</v>
+        <v>14.91958237019994</v>
       </c>
       <c r="E152">
-        <v>0.6285468875905454</v>
+        <v>17.34754472252544</v>
       </c>
       <c r="F152">
-        <v>3.821536917895144</v>
+        <v>25.32038956688994</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>13.62637595366546</v>
+        <v>13.54201142125545</v>
       </c>
       <c r="C153">
-        <v>25.43730941340531</v>
+        <v>0.04141228508089236</v>
       </c>
       <c r="D153">
-        <v>1.623993661548742</v>
+        <v>14.90262781990178</v>
       </c>
       <c r="E153">
-        <v>0.570942827934064</v>
+        <v>17.32930979802473</v>
       </c>
       <c r="F153">
-        <v>3.81178056012099</v>
+        <v>25.31212176197651</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>13.61234951860631</v>
+        <v>13.52629697829819</v>
       </c>
       <c r="C154">
-        <v>25.42987768048769</v>
+        <v>0.040556373853563</v>
       </c>
       <c r="D154">
-        <v>1.601901154844288</v>
+        <v>14.88567260184724</v>
       </c>
       <c r="E154">
-        <v>0.5145330330189191</v>
+        <v>17.31107678414178</v>
       </c>
       <c r="F154">
-        <v>3.802033713348194</v>
+        <v>25.30385439440523</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>13.59832915280837</v>
+        <v>13.51059250478692</v>
       </c>
       <c r="C155">
-        <v>25.42244656318675</v>
+        <v>0.03973489624804945</v>
       </c>
       <c r="D155">
-        <v>1.57998694601511</v>
+        <v>14.86871721564159</v>
       </c>
       <c r="E155">
-        <v>0.4595391851047789</v>
+        <v>17.29284569480722</v>
       </c>
       <c r="F155">
-        <v>3.79229653141344</v>
+        <v>25.29558748358064</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>13.58431486567638</v>
+        <v>13.49489813578411</v>
       </c>
       <c r="C156">
-        <v>25.41501606767855</v>
+        <v>0.03894371511065998</v>
       </c>
       <c r="D156">
-        <v>1.558252935375847</v>
+        <v>14.85176213167059</v>
       </c>
       <c r="E156">
-        <v>0.4062249702653412</v>
+        <v>17.27461654239125</v>
       </c>
       <c r="F156">
-        <v>3.782569156058891</v>
+        <v>25.28732104663949</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>13.57030666585157</v>
+        <v>13.47921399463107</v>
       </c>
       <c r="C157">
-        <v>25.40758620033471</v>
+        <v>0.03817988539745722</v>
       </c>
       <c r="D157">
-        <v>1.536700890117408</v>
+        <v>14.83480778025392</v>
       </c>
       <c r="E157">
-        <v>0.3549038363373304</v>
+        <v>17.25638933815579</v>
       </c>
       <c r="F157">
-        <v>3.772851720034123</v>
+        <v>25.2790550986611</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>13.5563045615927</v>
+        <v>13.46354019220502</v>
       </c>
       <c r="C158">
-        <v>25.40015696592494</v>
+        <v>0.03744124674650044</v>
       </c>
       <c r="D158">
-        <v>1.515332448478066</v>
+        <v>14.81785456505597</v>
       </c>
       <c r="E158">
-        <v>0.3059462783474948</v>
+        <v>17.23816409229767</v>
       </c>
       <c r="F158">
-        <v>3.763144346167817</v>
+        <v>25.27078965273756</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>13.54230856049828</v>
+        <v>13.44787683020557</v>
       </c>
       <c r="C159">
-        <v>25.39272836892502</v>
+        <v>0.03672614569853053</v>
       </c>
       <c r="D159">
-        <v>1.49414912529258</v>
+        <v>14.80090285816353</v>
       </c>
       <c r="E159">
-        <v>0.2597843297789177</v>
+        <v>17.21994081418821</v>
       </c>
       <c r="F159">
-        <v>3.753447150105201</v>
+        <v>25.26252472060076</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>13.52831866985968</v>
+        <v>13.4322240007072</v>
       </c>
       <c r="C160">
-        <v>25.38530041360892</v>
+        <v>0.03603324275002492</v>
       </c>
       <c r="D160">
-        <v>1.47315231818604</v>
+        <v>14.78395300864314</v>
       </c>
       <c r="E160">
-        <v>0.2169084563352489</v>
+        <v>17.20171951240567</v>
       </c>
       <c r="F160">
-        <v>3.743760239002785</v>
+        <v>25.25426031238138</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>13.51433489652627</v>
+        <v>13.4165817882434</v>
       </c>
       <c r="C161">
-        <v>25.37787310287244</v>
+        <v>0.03536144123483268</v>
       </c>
       <c r="D161">
-        <v>1.452343309687451</v>
+        <v>14.76700533573283</v>
       </c>
       <c r="E161">
-        <v>0.177850069096079</v>
+        <v>17.18350019482548</v>
       </c>
       <c r="F161">
-        <v>3.734083714161941</v>
+        <v>25.2459964371317</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>13.50035724707308</v>
+        <v>13.40095026939822</v>
       </c>
       <c r="C162">
-        <v>25.37044644010908</v>
+        <v>0.03470984454443675</v>
       </c>
       <c r="D162">
-        <v>1.431723275442034</v>
+        <v>14.75006014408111</v>
       </c>
       <c r="E162">
-        <v>0.1431386749199728</v>
+        <v>17.16528286879321</v>
       </c>
       <c r="F162">
-        <v>3.724417669768338</v>
+        <v>25.23773310280949</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>13.48638572780545</v>
+        <v>13.38532951509948</v>
       </c>
       <c r="C163">
-        <v>25.36302042765138</v>
+        <v>0.03407758502941807</v>
       </c>
       <c r="D163">
-        <v>1.411293284147521</v>
+        <v>14.73311772080595</v>
       </c>
       <c r="E163">
-        <v>0.113226437788287</v>
+        <v>17.14706754107068</v>
       </c>
       <c r="F163">
-        <v>3.714762194988362</v>
+        <v>25.22947031647891</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>13.47242034479458</v>
+        <v>13.36971958901477</v>
       </c>
       <c r="C164">
-        <v>25.35559506785927</v>
+        <v>0.03346387172190536</v>
       </c>
       <c r="D164">
-        <v>1.391054305532968</v>
+        <v>14.71617831634638</v>
       </c>
       <c r="E164">
-        <v>0.0883829111385844</v>
+        <v>17.12885421803801</v>
       </c>
       <c r="F164">
-        <v>3.705117373230817</v>
+        <v>25.22120808444608</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>13.45846110394635</v>
+        <v>13.35412055065332</v>
       </c>
       <c r="C165">
-        <v>25.34817036272469</v>
+        <v>0.03286801626392428</v>
       </c>
       <c r="D165">
-        <v>1.371007210528814</v>
+        <v>14.69924218557464</v>
       </c>
       <c r="E165">
-        <v>0.06858990708828266</v>
+        <v>17.11064290566503</v>
       </c>
       <c r="F165">
-        <v>3.695483283528577</v>
+        <v>25.2129464121299</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>13.44450801096327</v>
+        <v>13.33853245319606</v>
       </c>
       <c r="C166">
-        <v>25.34074631397189</v>
+        <v>0.03228935765671576</v>
       </c>
       <c r="D166">
-        <v>1.351152777914712</v>
+        <v>14.68230956774998</v>
       </c>
       <c r="E166">
-        <v>0.0534900704424919</v>
+        <v>17.09243360963152</v>
       </c>
       <c r="F166">
-        <v>3.685860000262924</v>
+        <v>25.20468530463707</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>13.43056107142545</v>
+        <v>13.32295534633521</v>
       </c>
       <c r="C167">
-        <v>25.3333229232056</v>
+        <v>0.03172725351726723</v>
       </c>
       <c r="D167">
-        <v>1.331491694951292</v>
+        <v>14.66538066611722</v>
       </c>
       <c r="E167">
-        <v>0.04243366437660812</v>
+        <v>17.07422633532239</v>
       </c>
       <c r="F167">
-        <v>3.676247594057211</v>
+        <v>25.19642476638982</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>13.41662029073621</v>
+        <v>13.30738927476521</v>
       </c>
       <c r="C168">
-        <v>25.32590019177949</v>
+        <v>0.03118110887690841</v>
       </c>
       <c r="D168">
-        <v>1.312024562807915</v>
+        <v>14.64845568844549</v>
       </c>
       <c r="E168">
-        <v>0.03461188913238457</v>
+        <v>17.05602108790528</v>
       </c>
       <c r="F168">
-        <v>3.666646131677025</v>
+        <v>25.18816480115902</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>13.40268567426867</v>
+        <v>13.29183428001827</v>
       </c>
       <c r="C169">
-        <v>25.31847812103159</v>
+        <v>0.0306503581904741</v>
       </c>
       <c r="D169">
-        <v>1.292751897696443</v>
+        <v>14.63153483353492</v>
       </c>
       <c r="E169">
-        <v>0.02921285491149801</v>
+        <v>17.03781787232468</v>
       </c>
       <c r="F169">
-        <v>3.657055676691588</v>
+        <v>25.17990541293254</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>13.3887572272097</v>
+        <v>13.27629039973003</v>
       </c>
       <c r="C170">
-        <v>25.31105671206918</v>
+        <v>0.0301344588928567</v>
       </c>
       <c r="D170">
-        <v>1.273674135096239</v>
+        <v>14.6146182735228</v>
       </c>
       <c r="E170">
-        <v>0.02553368190933025</v>
+        <v>17.01961669334483</v>
       </c>
       <c r="F170">
-        <v>3.647476289417716</v>
+        <v>25.17164660449422</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>13.37483495471146</v>
+        <v>13.26075766884929</v>
       </c>
       <c r="C171">
-        <v>25.30363596592601</v>
+        <v>0.02963288047738236</v>
       </c>
       <c r="D171">
-        <v>1.25479163153499</v>
+        <v>14.59770617553596</v>
       </c>
       <c r="E171">
-        <v>0.0230270180989084</v>
+        <v>17.00141755557492</v>
       </c>
       <c r="F171">
-        <v>3.637908027429769</v>
+        <v>25.16338837894417</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>13.36091886193531</v>
+        <v>13.24523611904607</v>
       </c>
       <c r="C172">
-        <v>25.29621588359258</v>
+        <v>0.02914511760568272</v>
       </c>
       <c r="D172">
-        <v>1.236104666712927</v>
+        <v>14.58079870269167</v>
       </c>
       <c r="E172">
-        <v>0.02129717660537072</v>
+        <v>16.9832204634509</v>
       </c>
       <c r="F172">
-        <v>3.628350945571994</v>
+        <v>25.15513073903911</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>13.34700895377528</v>
+        <v>13.22972577986067</v>
       </c>
       <c r="C173">
-        <v>25.28879646584169</v>
+        <v>0.02867069382429583</v>
       </c>
       <c r="D173">
-        <v>1.217613447528884</v>
+        <v>14.56389600182253</v>
       </c>
       <c r="E173">
-        <v>0.02007245656264987</v>
+        <v>16.96502542133478</v>
       </c>
       <c r="F173">
-        <v>3.618805096307133</v>
+        <v>25.14687368680145</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>13.33310523528026</v>
+        <v>13.21422667797125</v>
       </c>
       <c r="C174">
-        <v>25.2813777134934</v>
+        <v>0.02820915653355998</v>
       </c>
       <c r="D174">
-        <v>1.199318111408258</v>
+        <v>14.54699821092943</v>
       </c>
       <c r="E174">
-        <v>0.01917259765897821</v>
+        <v>16.9468324334807</v>
       </c>
       <c r="F174">
-        <v>3.60927052982456</v>
+        <v>25.13861722453141</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>13.31920771137631</v>
+        <v>13.19873883828957</v>
       </c>
       <c r="C175">
-        <v>25.27395962721195</v>
+        <v>0.02776006803700511</v>
       </c>
       <c r="D175">
-        <v>1.181218721091016</v>
+        <v>14.53010546401264</v>
       </c>
       <c r="E175">
-        <v>0.01848071083770781</v>
+        <v>16.92864150398565</v>
       </c>
       <c r="F175">
-        <v>3.599747294233901</v>
+        <v>25.13036135407475</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>13.30531638686924</v>
+        <v>13.18326228338836</v>
       </c>
       <c r="C176">
-        <v>25.26654220763583</v>
+        <v>0.02732300514854637</v>
       </c>
       <c r="D176">
-        <v>1.16331527956604</v>
+        <v>14.51321788521118</v>
       </c>
       <c r="E176">
-        <v>0.01792234796618761</v>
+        <v>16.91045263699844</v>
       </c>
       <c r="F176">
-        <v>3.590235435752954</v>
+        <v>25.12210607709345</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>13.29143126663616</v>
+        <v>13.167797034176</v>
       </c>
       <c r="C177">
-        <v>25.2591254553439</v>
+        <v>0.02689755471968676</v>
       </c>
       <c r="D177">
-        <v>1.145607723960594</v>
+        <v>14.49633559126569</v>
       </c>
       <c r="E177">
-        <v>0.0174502850687804</v>
+        <v>16.89226583652298</v>
       </c>
       <c r="F177">
-        <v>3.580734998653888</v>
+        <v>25.11385139516914</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>13.27755235545608</v>
+        <v>13.15234310975458</v>
       </c>
       <c r="C178">
-        <v>25.2517093708677</v>
+        <v>0.02648332773394165</v>
       </c>
       <c r="D178">
-        <v>1.128095921597307</v>
+        <v>14.47945869471064</v>
       </c>
       <c r="E178">
-        <v>0.01703503153154119</v>
+        <v>16.87408110647253</v>
       </c>
       <c r="F178">
-        <v>3.571246025743696</v>
+        <v>25.10559730968499</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>13.263679658088</v>
+        <v>13.13690052769897</v>
       </c>
       <c r="C179">
-        <v>25.24429395470547</v>
+        <v>0.02607994835276716</v>
       </c>
       <c r="D179">
-        <v>1.110779688103354</v>
+        <v>14.46258730096048</v>
       </c>
       <c r="E179">
-        <v>0.01665810584936208</v>
+        <v>16.85589845083917</v>
       </c>
       <c r="F179">
-        <v>3.561768558482774</v>
+        <v>25.09734382195218</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>13.24981317927836</v>
+        <v>13.12146930413748</v>
       </c>
       <c r="C180">
-        <v>25.23687920731295</v>
+        <v>0.02568705620038014</v>
       </c>
       <c r="D180">
-        <v>1.093658776380988</v>
+        <v>14.44572150853283</v>
       </c>
       <c r="E180">
-        <v>0.01630785602638355</v>
+        <v>16.8377178734349</v>
       </c>
       <c r="F180">
-        <v>3.55230263616724</v>
+        <v>25.08909093315819</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>13.23595292374019</v>
+        <v>13.1060494538658</v>
       </c>
       <c r="C181">
-        <v>25.22946512913511</v>
+        <v>0.02530430148931834</v>
       </c>
       <c r="D181">
-        <v>1.076732878274778</v>
+        <v>14.42886141403895</v>
       </c>
       <c r="E181">
-        <v>0.01597712145510205</v>
+        <v>16.81953937809653</v>
       </c>
       <c r="F181">
-        <v>3.542848297688742</v>
+        <v>25.08083864437677</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>13.22209889617763</v>
+        <v>13.09064099048438</v>
       </c>
       <c r="C182">
-        <v>25.22205172057487</v>
+        <v>0.02493135422457672</v>
       </c>
       <c r="D182">
-        <v>1.06000163589759</v>
+        <v>14.41200710798362</v>
       </c>
       <c r="E182">
-        <v>0.01566133232292743</v>
+        <v>16.80136296865432</v>
       </c>
       <c r="F182">
-        <v>3.533405580643519</v>
+        <v>25.07258695667617</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>13.20825110127642</v>
+        <v>13.07524392642992</v>
       </c>
       <c r="C183">
-        <v>25.21463898201645</v>
+        <v>0.0245678978038044</v>
       </c>
       <c r="D183">
-        <v>1.04346463400004</v>
+        <v>14.39515867333383</v>
       </c>
       <c r="E183">
-        <v>0.01535758517699986</v>
+        <v>16.78318864883538</v>
       </c>
       <c r="F183">
-        <v>3.523974520496267</v>
+        <v>25.06433587094398</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>13.19440954370442</v>
+        <v>13.05985827315422</v>
       </c>
       <c r="C184">
-        <v>25.207226913834</v>
+        <v>0.0242136197499747</v>
       </c>
       <c r="D184">
-        <v>1.027121404605479</v>
+        <v>14.37831619329398</v>
       </c>
       <c r="E184">
-        <v>0.01506404272754803</v>
+        <v>16.76501642240327</v>
       </c>
       <c r="F184">
-        <v>3.514555152832223</v>
+        <v>25.05608538807371</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>13.18057422813369</v>
+        <v>13.04448404107612</v>
       </c>
       <c r="C185">
-        <v>25.19981551635991</v>
+        <v>0.02386821805413663</v>
       </c>
       <c r="D185">
-        <v>1.01097143109833</v>
+        <v>14.36147974571223</v>
       </c>
       <c r="E185">
-        <v>0.01477946208795583</v>
+        <v>16.74684629308413</v>
       </c>
       <c r="F185">
-        <v>3.505147511946678</v>
+        <v>25.04783550890026</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>13.1667451592076</v>
+        <v>13.02912123980057</v>
       </c>
       <c r="C186">
-        <v>25.19240478993109</v>
+        <v>0.02353140449771741</v>
       </c>
       <c r="D186">
-        <v>0.9950141457967216</v>
+        <v>14.3446494016917</v>
       </c>
       <c r="E186">
-        <v>0.01450300140388429</v>
+        <v>16.72867826457979</v>
       </c>
       <c r="F186">
-        <v>3.495751630502804</v>
+        <v>25.03958623412922</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>13.15292234156919</v>
+        <v>13.01376987802534</v>
       </c>
       <c r="C187">
-        <v>25.18499473485543</v>
+        <v>0.02320291069540374</v>
       </c>
       <c r="D187">
-        <v>0.9792489343115018</v>
+        <v>14.32782523237347</v>
       </c>
       <c r="E187">
-        <v>0.01423407662477027</v>
+        <v>16.71051234059395</v>
       </c>
       <c r="F187">
-        <v>3.486367541127898</v>
+        <v>25.0313375644869</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>13.13910577986095</v>
+        <v>12.9984299637585</v>
       </c>
       <c r="C188">
-        <v>25.17758535143248</v>
+        <v>0.02288247913812518</v>
       </c>
       <c r="D188">
-        <v>0.9636751366096439</v>
+        <v>14.3110073045873</v>
       </c>
       <c r="E188">
-        <v>0.01397224830883042</v>
+        <v>16.69234852481354</v>
       </c>
       <c r="F188">
-        <v>3.476995275358445</v>
+        <v>25.02308950062119</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>13.1252954786979</v>
+        <v>12.98310150422844</v>
       </c>
       <c r="C189">
-        <v>25.17017663994949</v>
+        <v>0.02256986004846984</v>
       </c>
       <c r="D189">
-        <v>0.9482920456085996</v>
+        <v>14.29419568045181</v>
       </c>
       <c r="E189">
-        <v>0.0137171603115531</v>
+        <v>16.67418682091821</v>
       </c>
       <c r="F189">
-        <v>3.46763486369397</v>
+        <v>25.01484204313617</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>13.11149144270582</v>
+        <v>12.96778450606824</v>
       </c>
       <c r="C190">
-        <v>25.16276860068314</v>
+        <v>0.02226480658371711</v>
       </c>
       <c r="D190">
-        <v>0.9330989132580751</v>
+        <v>14.27739042088007</v>
       </c>
       <c r="E190">
-        <v>0.01346851978713104</v>
+        <v>16.65602723259547</v>
       </c>
       <c r="F190">
-        <v>3.458286336280665</v>
+        <v>25.00659519261014</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>13.09769367649872</v>
+        <v>12.95247897524261</v>
       </c>
       <c r="C191">
-        <v>25.15536123390233</v>
+        <v>0.02196707404305459</v>
       </c>
       <c r="D191">
-        <v>0.9180949488994599</v>
+        <v>14.26059158363222</v>
       </c>
       <c r="E191">
-        <v>0.01322608563681308</v>
+        <v>16.63786976350893</v>
       </c>
       <c r="F191">
-        <v>3.448949722464237</v>
+        <v>24.99834894958293</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>13.0839021846829</v>
+        <v>12.93718491719624</v>
       </c>
       <c r="C192">
-        <v>25.14795453986623</v>
+        <v>0.02167643061296582</v>
       </c>
       <c r="D192">
-        <v>0.9032793193833124</v>
+        <v>14.24379922310803</v>
       </c>
       <c r="E192">
-        <v>0.01298964684126208</v>
+        <v>16.61971441733412</v>
       </c>
       <c r="F192">
-        <v>3.439625050894314</v>
+        <v>24.99010331457159</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>13.07011697186375</v>
+        <v>12.92190233674913</v>
       </c>
       <c r="C193">
-        <v>25.14054851883083</v>
+        <v>0.02139265542948978</v>
       </c>
       <c r="D193">
-        <v>0.888651154397849</v>
+        <v>14.22701339217802</v>
       </c>
       <c r="E193">
-        <v>0.01275900392334216</v>
+        <v>16.60156119775015</v>
       </c>
       <c r="F193">
-        <v>3.430312349796451</v>
+        <v>24.98185828806584</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>13.05633804264233</v>
+        <v>12.90663123835386</v>
       </c>
       <c r="C194">
-        <v>25.13314317104303</v>
+        <v>0.02111554743216719</v>
       </c>
       <c r="D194">
-        <v>0.8742095445297812</v>
+        <v>14.21023414135468</v>
       </c>
       <c r="E194">
-        <v>0.01253396131734984</v>
+        <v>16.58341010841442</v>
       </c>
       <c r="F194">
-        <v>3.421011646761873</v>
+        <v>24.97361387052793</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>13.04256540161709</v>
+        <v>12.89137162603586</v>
       </c>
       <c r="C195">
-        <v>25.1257384967447</v>
+        <v>0.02084490677894177</v>
       </c>
       <c r="D195">
-        <v>0.8599535425939834</v>
+        <v>14.19346151823107</v>
       </c>
       <c r="E195">
-        <v>0.01231432822834341</v>
+        <v>16.56526115300548</v>
       </c>
       <c r="F195">
-        <v>3.411722968834174</v>
+        <v>24.96537006241441</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>13.0287990533845</v>
+        <v>12.87612350309029</v>
       </c>
       <c r="C196">
-        <v>25.11833449617502</v>
+        <v>0.02058054415126358</v>
       </c>
       <c r="D196">
-        <v>0.8458821671961551</v>
+        <v>14.17669556911961</v>
       </c>
       <c r="E196">
-        <v>0.01209995550366285</v>
+        <v>16.547114335197</v>
       </c>
       <c r="F196">
-        <v>3.402446342729964</v>
+        <v>24.95712686414462</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>13.01503900253759</v>
+        <v>12.86088687280207</v>
       </c>
       <c r="C197">
-        <v>25.11093116956423</v>
+        <v>0.02032227277837281</v>
       </c>
       <c r="D197">
-        <v>0.83199440154721</v>
+        <v>14.15993633856278</v>
       </c>
       <c r="E197">
-        <v>0.01189067493975211</v>
+        <v>16.5289696586598</v>
       </c>
       <c r="F197">
-        <v>3.393181794576183</v>
+        <v>24.94888427613222</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>13.00128525367057</v>
+        <v>12.8456617380627</v>
       </c>
       <c r="C198">
-        <v>25.10352851714253</v>
+        <v>0.0200699035495039</v>
       </c>
       <c r="D198">
-        <v>0.8182891955537857</v>
+        <v>14.14318386848822</v>
       </c>
       <c r="E198">
-        <v>0.011686341852908</v>
+        <v>16.51082712707443</v>
       </c>
       <c r="F198">
-        <v>3.383929350072332</v>
+        <v>24.94064229877798</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>12.98753781137501</v>
+        <v>12.83044810105044</v>
       </c>
       <c r="C199">
-        <v>25.09612653913389</v>
+        <v>0.01982325636636685</v>
       </c>
       <c r="D199">
-        <v>0.8047654677395266</v>
+        <v>14.12643819955112</v>
       </c>
       <c r="E199">
-        <v>0.01148680839224655</v>
+        <v>16.49268674412316</v>
       </c>
       <c r="F199">
-        <v>3.374689034649869</v>
+        <v>24.9324009324539</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>12.97379668023962</v>
+        <v>12.81524596394787</v>
       </c>
       <c r="C200">
-        <v>25.08872523575991</v>
+        <v>0.01958215896809425</v>
       </c>
       <c r="D200">
-        <v>0.7914221048687049</v>
+        <v>14.10969937113699</v>
       </c>
       <c r="E200">
-        <v>0.01129192333056282</v>
+        <v>16.47454851349315</v>
       </c>
       <c r="F200">
-        <v>3.365460873205666</v>
+        <v>24.92416017753273</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>12.96006186485575</v>
+        <v>12.8000553286825</v>
       </c>
       <c r="C201">
-        <v>25.08132460723923</v>
+        <v>0.01934645166479194</v>
       </c>
       <c r="D201">
-        <v>0.7782579644572687</v>
+        <v>14.09296742050462</v>
       </c>
       <c r="E201">
-        <v>0.01110154909491519</v>
+        <v>16.45641243887809</v>
       </c>
       <c r="F201">
-        <v>3.356244890321503</v>
+        <v>24.91592003436947</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.94633336981079</v>
+        <v>12.7848761966593</v>
       </c>
       <c r="C202">
-        <v>25.07392465378783</v>
+        <v>0.01911597441744859</v>
       </c>
       <c r="D202">
-        <v>0.7652718756141426</v>
+        <v>14.07624238350874</v>
       </c>
       <c r="E202">
-        <v>0.01091556072998927</v>
+        <v>16.43827852397603</v>
       </c>
       <c r="F202">
-        <v>3.347041110303996</v>
+        <v>24.90768050330773</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12.93261119969272</v>
+        <v>12.76970856907678</v>
       </c>
       <c r="C203">
-        <v>25.06652537561976</v>
+        <v>0.01889057487220697</v>
       </c>
       <c r="D203">
-        <v>0.7524626390475394</v>
+        <v>14.05952429504049</v>
       </c>
       <c r="E203">
-        <v>0.0107338334369674</v>
+        <v>16.42014677249328</v>
       </c>
       <c r="F203">
-        <v>3.337849557032856</v>
+        <v>24.89944158468416</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>12.91889535908953</v>
+        <v>12.75455244702732</v>
       </c>
       <c r="C204">
-        <v>25.05912677294652</v>
+        <v>0.01867010976826477</v>
       </c>
       <c r="D204">
-        <v>0.739829030020369</v>
+        <v>14.04281318834933</v>
       </c>
       <c r="E204">
-        <v>0.01055624482871141</v>
+        <v>16.40201718814369</v>
       </c>
       <c r="F204">
-        <v>3.328670254140466</v>
+        <v>24.89120327882484</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.90518585258783</v>
+        <v>12.73940783125097</v>
       </c>
       <c r="C205">
-        <v>25.05172884597873</v>
+        <v>0.01845444507468805</v>
       </c>
       <c r="D205">
-        <v>0.7273697982579497</v>
+        <v>14.0261090953498</v>
       </c>
       <c r="E205">
-        <v>0.01038265161648996</v>
+        <v>16.38388977464427</v>
       </c>
       <c r="F205">
-        <v>3.319503224986295</v>
+        <v>24.88296558605012</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.89148268477479</v>
+        <v>12.72427472222522</v>
       </c>
       <c r="C206">
-        <v>25.04433159492477</v>
+        <v>0.01824345493276169</v>
       </c>
       <c r="D206">
-        <v>0.715083668594635</v>
+        <v>14.00941204710411</v>
       </c>
       <c r="E206">
-        <v>0.01021296544217179</v>
+        <v>16.36576453572412</v>
       </c>
       <c r="F206">
-        <v>3.310348492589574</v>
+        <v>24.87472850667291</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.87778586023739</v>
+        <v>12.70915312033364</v>
       </c>
       <c r="C207">
-        <v>25.03693501999163</v>
+        <v>0.01803700007013009</v>
       </c>
       <c r="D207">
-        <v>0.7029693435708576</v>
+        <v>13.99272207338876</v>
       </c>
       <c r="E207">
-        <v>0.01004708098437426</v>
+        <v>16.34764147511842</v>
       </c>
       <c r="F207">
-        <v>3.301206079772159</v>
+        <v>24.86649204099843</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12.86409538356279</v>
+        <v>12.69404302571996</v>
       </c>
       <c r="C208">
-        <v>25.02953912138556</v>
+        <v>0.01783494443641745</v>
       </c>
       <c r="D208">
-        <v>0.691025503210007</v>
+        <v>13.97603920280607</v>
       </c>
       <c r="E208">
-        <v>0.009884884105704143</v>
+        <v>16.32952059656811</v>
       </c>
       <c r="F208">
-        <v>3.29207600910672</v>
+        <v>24.8582561893297</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>12.85041125933847</v>
+        <v>12.67894443831204</v>
       </c>
       <c r="C209">
-        <v>25.02214389931066</v>
+        <v>0.01763716052154217</v>
       </c>
       <c r="D209">
-        <v>0.6792508060840119</v>
+        <v>13.95936346322635</v>
       </c>
       <c r="E209">
-        <v>0.009726261262587669</v>
+        <v>16.31140190382524</v>
       </c>
       <c r="F209">
-        <v>3.282958302872044</v>
+        <v>24.85002095196085</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>12.83673349215195</v>
+        <v>12.66385735793558</v>
       </c>
       <c r="C210">
-        <v>25.01474935397086</v>
+        <v>0.01744352980782867</v>
       </c>
       <c r="D210">
-        <v>0.6676438913609853</v>
+        <v>13.94269488146285</v>
       </c>
       <c r="E210">
-        <v>0.009571120200092844</v>
+        <v>16.2932854006487</v>
       </c>
       <c r="F210">
-        <v>3.273852983195144</v>
+        <v>24.84178632918311</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12.82306208659143</v>
+        <v>12.64878178424294</v>
       </c>
       <c r="C211">
-        <v>25.0073554855683</v>
+        <v>0.01725393785618484</v>
       </c>
       <c r="D211">
-        <v>0.6562033786317827</v>
+        <v>13.92603348324231</v>
       </c>
       <c r="E211">
-        <v>0.009419372502549308</v>
+        <v>16.27517109080577</v>
       </c>
       <c r="F211">
-        <v>3.264760071977291</v>
+        <v>24.83355232128433</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.8093970472457</v>
+        <v>12.63371771668121</v>
       </c>
       <c r="C212">
-        <v>24.99996229430477</v>
+        <v>0.01706827761752337</v>
       </c>
       <c r="D212">
-        <v>0.6449278694117718</v>
+        <v>13.90937929374622</v>
       </c>
       <c r="E212">
-        <v>0.009270920103296101</v>
+        <v>16.25705897807313</v>
       </c>
       <c r="F212">
-        <v>3.25567959086213</v>
+        <v>24.82531892854522</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.79573837870328</v>
+        <v>12.61866515464238</v>
       </c>
       <c r="C213">
-        <v>24.99256978038151</v>
+        <v>0.01688644425630322</v>
       </c>
       <c r="D213">
-        <v>0.6338159485377274</v>
+        <v>13.8927323372513</v>
       </c>
       <c r="E213">
-        <v>0.009125674894777251</v>
+        <v>16.23894906623601</v>
       </c>
       <c r="F213">
-        <v>3.246611561368907</v>
+        <v>24.81708615124578</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.78208608555404</v>
+        <v>12.60362409737889</v>
       </c>
       <c r="C214">
-        <v>24.98517794399892</v>
+        <v>0.0167083360147322</v>
       </c>
       <c r="D214">
-        <v>0.622866184080262</v>
+        <v>13.87609263701011</v>
       </c>
       <c r="E214">
-        <v>0.00898355100548261</v>
+        <v>16.22084135908894</v>
       </c>
       <c r="F214">
-        <v>3.237556004811956</v>
+        <v>24.80885398966142</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12.76844017238802</v>
+        <v>12.58859454392612</v>
       </c>
       <c r="C215">
-        <v>24.97778678535577</v>
+        <v>0.01653385667644256</v>
       </c>
       <c r="D215">
-        <v>0.6120771293333492</v>
+        <v>13.85946021587165</v>
       </c>
       <c r="E215">
-        <v>0.008844459761462451</v>
+        <v>16.2027358604358</v>
       </c>
       <c r="F215">
-        <v>3.228512942290831</v>
+        <v>24.8006224440643</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12.7548006437956</v>
+        <v>12.57357649331163</v>
       </c>
       <c r="C216">
-        <v>24.97039630465207</v>
+        <v>0.01636290985864421</v>
       </c>
       <c r="D216">
-        <v>0.6014473234785538</v>
+        <v>13.84283509590387</v>
       </c>
       <c r="E216">
-        <v>0.008708308381656916</v>
+        <v>16.18463257408949</v>
       </c>
       <c r="F216">
-        <v>3.21948239478659</v>
+        <v>24.79239151472462</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.74116750436814</v>
+        <v>12.55856994443369</v>
       </c>
       <c r="C217">
-        <v>24.96300650208716</v>
+        <v>0.01619540093298501</v>
       </c>
       <c r="D217">
-        <v>0.5909752916658959</v>
+        <v>13.82621729827145</v>
       </c>
       <c r="E217">
-        <v>0.008575030330127568</v>
+        <v>16.16653150387304</v>
       </c>
       <c r="F217">
-        <v>3.210464383099188</v>
+        <v>24.78416120190937</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.72754075869739</v>
+        <v>12.54357489602701</v>
       </c>
       <c r="C218">
-        <v>24.95561737785863</v>
+        <v>0.0160312377394551</v>
       </c>
       <c r="D218">
-        <v>0.5806595473814626</v>
+        <v>13.80960684377627</v>
       </c>
       <c r="E218">
-        <v>0.008444560491768716</v>
+        <v>16.14843265361889</v>
       </c>
       <c r="F218">
-        <v>3.201458927853815</v>
+        <v>24.77593150588399</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.7139204113758</v>
+        <v>12.5285913467763</v>
       </c>
       <c r="C219">
-        <v>24.94822893216407</v>
+        <v>0.01587032887680271</v>
       </c>
       <c r="D219">
-        <v>0.5704985923982844</v>
+        <v>13.79300375255744</v>
       </c>
       <c r="E219">
-        <v>0.008316814361722581</v>
+        <v>16.13033602716878</v>
       </c>
       <c r="F219">
-        <v>3.192466049557664</v>
+        <v>24.76770242691171</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.70030646699652</v>
+        <v>12.513619295281</v>
       </c>
       <c r="C220">
-        <v>24.94084116520203</v>
+        <v>0.01571258168536899</v>
       </c>
       <c r="D220">
-        <v>0.560490917324041</v>
+        <v>13.77640804400065</v>
       </c>
       <c r="E220">
-        <v>0.008191721443271557</v>
+        <v>16.11224162837506</v>
       </c>
       <c r="F220">
-        <v>3.183485768559841</v>
+        <v>24.75947396525348</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.68669893015335</v>
+        <v>12.4986587400244</v>
       </c>
       <c r="C221">
-        <v>24.93345407717044</v>
+        <v>0.01555790601999719</v>
       </c>
       <c r="D221">
-        <v>0.5506350037218077</v>
+        <v>13.7598197371318</v>
       </c>
       <c r="E221">
-        <v>0.008069213064630714</v>
+        <v>16.09414946109946</v>
       </c>
       <c r="F221">
-        <v>3.174518105063377</v>
+        <v>24.75124612116949</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.67309780544088</v>
+        <v>12.48370967941309</v>
       </c>
       <c r="C222">
-        <v>24.92606766826471</v>
+        <v>0.01540623356056831</v>
       </c>
       <c r="D222">
-        <v>0.5409293238918216</v>
+        <v>13.74323885041568</v>
       </c>
       <c r="E222">
-        <v>0.007949223245759271</v>
+        <v>16.0760595292137</v>
       </c>
       <c r="F222">
-        <v>3.165563079159657</v>
+        <v>24.74301889491683</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.65950309745434</v>
+        <v>12.46877211179427</v>
       </c>
       <c r="C223">
-        <v>24.91868193868261</v>
+        <v>0.01525749699177285</v>
       </c>
       <c r="D223">
-        <v>0.5313723417489093</v>
+        <v>13.72666540170558</v>
       </c>
       <c r="E223">
-        <v>0.007831686102634768</v>
+        <v>16.0579718365999</v>
       </c>
       <c r="F223">
-        <v>3.156620710798217</v>
+        <v>24.73479228675211</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.64591481078971</v>
+        <v>12.45384603542763</v>
       </c>
       <c r="C224">
-        <v>24.911296888621</v>
+        <v>0.01511162252523263</v>
       </c>
       <c r="D224">
-        <v>0.5219625145740898</v>
+        <v>13.71009940848038</v>
       </c>
       <c r="E224">
-        <v>0.007716541084423757</v>
+        <v>16.03988638715001</v>
       </c>
       <c r="F224">
-        <v>3.147691019803359</v>
+        <v>24.72656629693148</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.6323329500438</v>
+        <v>12.43893144849828</v>
       </c>
       <c r="C225">
-        <v>24.90391251827624</v>
+        <v>0.01496852196264511</v>
       </c>
       <c r="D225">
-        <v>0.5126982926742466</v>
+        <v>13.69354088776887</v>
       </c>
       <c r="E225">
-        <v>0.0076037232383598</v>
+        <v>16.02180318476637</v>
       </c>
       <c r="F225">
-        <v>3.138774025896604</v>
+        <v>24.71834092571031</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.61875751981385</v>
+        <v>12.4240283491445</v>
       </c>
       <c r="C226">
-        <v>24.89652882784415</v>
+        <v>0.01482812173677099</v>
       </c>
       <c r="D226">
-        <v>0.5035781207274497</v>
+        <v>13.67698985607519</v>
       </c>
       <c r="E226">
-        <v>0.007493176271208516</v>
+        <v>16.00372223336163</v>
       </c>
       <c r="F226">
-        <v>3.129869748668724</v>
+        <v>24.71011617333869</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.60518852469812</v>
+        <v>12.40913673543476</v>
       </c>
       <c r="C227">
-        <v>24.88914581752114</v>
+        <v>0.01469036766980736</v>
       </c>
       <c r="D227">
-        <v>0.4946004389690049</v>
+        <v>13.66044632954178</v>
       </c>
       <c r="E227">
-        <v>0.007384842327709959</v>
+        <v>15.98564353685876</v>
       </c>
       <c r="F227">
-        <v>3.120978207602908</v>
+        <v>24.70189204007008</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.59162596929564</v>
+        <v>12.39425660536583</v>
       </c>
       <c r="C228">
-        <v>24.88176348750326</v>
+        <v>0.01455520201783138</v>
       </c>
       <c r="D228">
-        <v>0.4857636827743029</v>
+        <v>13.64391032394685</v>
       </c>
       <c r="E228">
-        <v>0.007278664016587016</v>
+        <v>15.96756709919126</v>
       </c>
       <c r="F228">
-        <v>3.112099422085507</v>
+        <v>24.69366852615726</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.57806985820628</v>
+        <v>12.37938795690309</v>
       </c>
       <c r="C229">
-        <v>24.8743818379863</v>
+        <v>0.01442255748623548</v>
       </c>
       <c r="D229">
-        <v>0.4770662846366188</v>
+        <v>13.6273818546156</v>
       </c>
       <c r="E229">
-        <v>0.007174591632530839</v>
+        <v>15.9494929243031</v>
       </c>
       <c r="F229">
-        <v>3.103233411382667</v>
+        <v>24.68544563185248</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.56452019602996</v>
+        <v>12.36453078795375</v>
       </c>
       <c r="C230">
-        <v>24.86700086916606</v>
+        <v>0.01429236307868325</v>
       </c>
       <c r="D230">
-        <v>0.4685066745172146</v>
+        <v>13.61086093652412</v>
       </c>
       <c r="E230">
-        <v>0.007072568765299001</v>
+        <v>15.9314210161488</v>
       </c>
       <c r="F230">
-        <v>3.094380194667496</v>
+        <v>24.67722335740096</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.55097698736801</v>
+        <v>12.34968509635405</v>
       </c>
       <c r="C231">
-        <v>24.85962058123835</v>
+        <v>0.01416455570869217</v>
       </c>
       <c r="D231">
-        <v>0.4600832796182035</v>
+        <v>13.59434758435176</v>
       </c>
       <c r="E231">
-        <v>0.006972547472563772</v>
+        <v>15.91335137869362</v>
       </c>
       <c r="F231">
-        <v>3.085539791019671</v>
+        <v>24.66900170305446</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.53744023682253</v>
+        <v>12.33485087992135</v>
       </c>
       <c r="C232">
-        <v>24.85224097439889</v>
+        <v>0.01403907978988251</v>
       </c>
       <c r="D232">
-        <v>0.4517945267564074</v>
+        <v>13.57784181239085</v>
       </c>
       <c r="E232">
-        <v>0.006874479035427411</v>
+        <v>15.89528401591331</v>
       </c>
       <c r="F232">
-        <v>3.076712219409408</v>
+        <v>24.66078066906258</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.52390994899641</v>
+        <v>12.32002813642358</v>
       </c>
       <c r="C233">
-        <v>24.8448620488432</v>
+        <v>0.01391588289001097</v>
       </c>
       <c r="D233">
-        <v>0.4436388419385954</v>
+        <v>13.56134363460161</v>
       </c>
       <c r="E233">
-        <v>0.006778312124808123</v>
+        <v>15.87721893179442</v>
       </c>
       <c r="F233">
-        <v>3.067897498724779</v>
+        <v>24.65256025567445</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.51038612849243</v>
+        <v>12.30521686356493</v>
       </c>
       <c r="C234">
-        <v>24.83748380476701</v>
+        <v>0.01379491226823884</v>
       </c>
       <c r="D234">
-        <v>0.4356146506689422</v>
+        <v>13.54485306469502</v>
       </c>
       <c r="E234">
-        <v>0.006684005828176365</v>
+        <v>15.85915613033449</v>
       </c>
       <c r="F234">
-        <v>3.059095647763573</v>
+        <v>24.64434046313438</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.49686877991483</v>
+        <v>12.29041705903359</v>
       </c>
       <c r="C235">
-        <v>24.83010624236602</v>
+        <v>0.01367611296839848</v>
       </c>
       <c r="D235">
-        <v>0.4277203800101623</v>
+        <v>13.52837011605263</v>
       </c>
       <c r="E235">
-        <v>0.006591510319031504</v>
+        <v>15.84109561554195</v>
       </c>
       <c r="F235">
-        <v>3.050306685223683</v>
+        <v>24.63612129169141</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.48335790786859</v>
+        <v>12.27562872047495</v>
       </c>
       <c r="C236">
-        <v>24.82272936183574</v>
+        <v>0.01355943194336176</v>
       </c>
       <c r="D236">
-        <v>0.419954457986329</v>
+        <v>13.51189480175003</v>
       </c>
       <c r="E236">
-        <v>0.006500784005431258</v>
+        <v>15.82303739143581</v>
       </c>
       <c r="F236">
-        <v>3.041530629728449</v>
+        <v>24.62790274159256</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.46985351695937</v>
+        <v>12.26085184548796</v>
       </c>
       <c r="C237">
-        <v>24.81535316337168</v>
+        <v>0.01344481811762393</v>
       </c>
       <c r="D237">
-        <v>0.4123153142746029</v>
+        <v>13.4954271346469</v>
       </c>
       <c r="E237">
-        <v>0.00641178705232357</v>
+        <v>15.80498146204585</v>
       </c>
       <c r="F237">
-        <v>3.032767499814444</v>
+        <v>24.6196848130845</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.45635561179305</v>
+        <v>12.24608643164579</v>
       </c>
       <c r="C238">
-        <v>24.80797764716955</v>
+        <v>0.01333222096318712</v>
       </c>
       <c r="D238">
-        <v>0.4048013818250075</v>
+        <v>13.47896712732081</v>
       </c>
       <c r="E238">
-        <v>0.006324472080803718</v>
+        <v>15.78692783141358</v>
       </c>
       <c r="F238">
-        <v>3.024017313927049</v>
+        <v>24.61146750641223</v>
       </c>
     </row>
   </sheetData>
